--- a/app/COVID19master/data/COVID_input_parameters.xlsx
+++ b/app/COVID19master/data/COVID_input_parameters.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatapudi/Desktop/COVID/SIMULATION/GITHUB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanor/Documents/GitHub/COVID19-Univ./web/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBC5B1A-4C1C-4A47-A94D-1CD64C52009A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3311A7D9-048E-B04C-AE8A-04D8D2AEBE47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="680" windowWidth="27840" windowHeight="16060" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="12" r:id="rId1"/>
-    <sheet name="Parameter List" sheetId="1" r:id="rId2"/>
-    <sheet name="q-mat_blank" sheetId="4" r:id="rId3"/>
-    <sheet name="input_list_const" sheetId="5" r:id="rId4"/>
-    <sheet name="symp_hospitalization" sheetId="9" r:id="rId5"/>
-    <sheet name="percent_dead_recover_days" sheetId="10" r:id="rId6"/>
-    <sheet name="sd_date" sheetId="11" r:id="rId7"/>
-    <sheet name="Sources" sheetId="8" r:id="rId8"/>
+    <sheet name="sensitvity_analysis" sheetId="13" r:id="rId2"/>
+    <sheet name="Parameter List" sheetId="1" r:id="rId3"/>
+    <sheet name="q-mat_blank" sheetId="4" r:id="rId4"/>
+    <sheet name="input_list_const" sheetId="5" r:id="rId5"/>
+    <sheet name="symp_hospitalization" sheetId="9" r:id="rId6"/>
+    <sheet name="percent_dead_recover_days" sheetId="10" r:id="rId7"/>
+    <sheet name="sd_date" sheetId="11" r:id="rId8"/>
+    <sheet name="Sources" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="352">
   <si>
     <t>Parameter</t>
   </si>
@@ -1252,14 +1253,198 @@
   <si>
     <t>[8], [14], [26]</t>
   </si>
+  <si>
+    <t>UMASS</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>Lower_bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper_bound </t>
+  </si>
+  <si>
+    <t>Latent period duration (days)</t>
+  </si>
+  <si>
+    <t>From the source, mean and the stdev is 2.52 and 3.95, respectively. Lower bound was  made equal to 0. Upper bound is equal to (2.52+3.95) ~ 6.5.</t>
+  </si>
+  <si>
+    <t>Base testing rate</t>
+  </si>
+  <si>
+    <t>Proportion of cases that never show symptoms</t>
+  </si>
+  <si>
+    <t>[27]</t>
+  </si>
+  <si>
+    <t>C. Heneghan, J. Brassery, T. Jefferson, "COVID-19: What proportion are asymptomatic?," [Online]. Available: https://www.cebm.net/covid-19/covid-19-what-proportion-are-asymptomatic/. [Accessed 22 June 2020].</t>
+  </si>
+  <si>
+    <t>[28]</t>
+  </si>
+  <si>
+    <t>CDC, "COVID-19 Pandemic Planning Scenarios," [Online]. Available: https://www.cdc.gov/coronavirus/2019-ncov/hcp/planning-scenarios.html. [Accessed 22 June 2020].</t>
+  </si>
+  <si>
+    <t>Incubation period  duration (days)</t>
+  </si>
+  <si>
+    <t>[29]</t>
+  </si>
+  <si>
+    <t>CDC, "Clinical Questions about COVID-19: Questions and Answers," [Online]. Available: https://www.cdc.gov/coronavirus/2019-ncov/hcp/faq.html#Transmission. [Accessed 22 June 2020].</t>
+  </si>
+  <si>
+    <t>[8] [29]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time from onset of symptoms to recovery </t>
+  </si>
+  <si>
+    <t>Days from infectiousness: 7 to 10 days ("Infectiousness was estimated to decline relatively quickly within 7 days of illness onset")</t>
+  </si>
+  <si>
+    <t>Time from onset of symptoms to hospitalization</t>
+  </si>
+  <si>
+    <t>Time from onset of symptoms to hospitalization for U.S. = 3.5 Range: 0-14 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time from diagnosis to recovery </t>
+  </si>
+  <si>
+    <t>Time from onset of symptoms to recovery (Days_IR) = 7 days. As per source [1], the time from onset of symptoms to reporting/diagnosis is 5.4 days. The lower bound is then 7-5.4 = 1.6 days. If we assume the time between the onset of symtpoms and diagnsosis is 0 days, the uppwe bound is then 7-0 = 7 days.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Proportion of cases that are hospitalized</t>
+  </si>
+  <si>
+    <t>[30]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CDC, “Coronavirus Disease 2019 Case Surveillance - United States, January 22–May 30, 2020.” </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Centers for Disease Control and Prevention</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Centers for Disease Control and Prevention, 18 June 2020,  www.cdc.gov/mmwr/volumes/69/wr/mm6924e2.htm?s_cid=mm6924e2_w. [Accessed 22 June 2020].</t>
+    </r>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>proportion of recovered cases is calculated by the number of recovered cases within the age group divide by the number of hospitalization cases within the age group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The time period for Source [19] is February 12–March 16 </t>
+  </si>
+  <si>
+    <t>The time period for Source [30]  is  January 22–May 30, 2020</t>
+  </si>
+  <si>
+    <t>The time period for source [20] is between March 1, 2020, and April 4, 2020 for New York City, Long Island, and Westchester County, New York, within the Northwell Health system</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmission risk </t>
+  </si>
+  <si>
+    <t>Proportion of hospitalized cases in both sources are calculated by number of known hospitalized cases within the age group divide by the number of diagnosed cases (including known and unknown hospitalized status) within the age group</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>Secondary attack rate</t>
+  </si>
+  <si>
+    <t>[31]</t>
+  </si>
+  <si>
+    <t>Jing et.al., Household Secondary Attack Rate of COVID-19 and Associated Determinants, April 15,2020, https://www.medrxiv.org/content/10.1101/2020.04.11.20056010v0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[32] </t>
+  </si>
+  <si>
+    <t>Liu, et. al., Secondary attack rate and super spreading events for SARS-CoV-2, The Lancet, March 2020, https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7158947/</t>
+  </si>
+  <si>
+    <t>[33]</t>
+  </si>
+  <si>
+    <t>Bi et.al., Epidemiology and Transmission of COVID-19 in Shenzhen China: Analysis of 391 cases and 1,286 of their close contacts, The Lancet Infectious Diseases, April 27, 2020, https://www.thelancet.com/journals/laninf/article/PIIS1473-3099(20)30287-5/fulltext#coronavirus-linkback-header</t>
+  </si>
+  <si>
+    <t>[32]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prop_deaths </t>
+  </si>
+  <si>
+    <t>Both sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Proportion of hospitalized cases that recover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Proportion of hospitalized cases that die</t>
+  </si>
+  <si>
+    <t>The proportion of deaths within the age group is calculated by 1- porpotion of recovery within the age group</t>
+  </si>
+  <si>
+    <t>Trans_prob</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1343,16 +1528,63 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF212529"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color rgb="FF212529"/>
+      <name val="Times Roman"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1440,12 +1672,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1456,20 +1706,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1478,13 +1725,13 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1493,13 +1740,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1508,19 +1755,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1535,7 +1782,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1544,13 +1791,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1559,7 +1806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1571,48 +1818,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1931,11 +2254,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D4CBC7-CE33-6342-AFB5-46B0BE50F271}">
   <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="40.5" customWidth="1"/>
@@ -1944,66 +2267,66 @@
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
+    <row r="5" spans="1:6" s="57" customFormat="1">
+      <c r="A5" s="57" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
+    <row r="9" spans="1:6" s="57" customFormat="1">
+      <c r="A9" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="57" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="32">
       <c r="A10" t="s">
         <v>242</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="64">
       <c r="A11" t="s">
         <v>243</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="47" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="80">
       <c r="A12" t="s">
         <v>244</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="47" t="s">
         <v>250</v>
       </c>
       <c r="D12" t="s">
@@ -2016,7 +2339,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="C13" t="s">
         <v>251</v>
       </c>
@@ -2030,21 +2353,21 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="32">
       <c r="C14" t="s">
         <v>252</v>
       </c>
       <c r="D14" t="s">
         <v>254</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="47" t="s">
         <v>260</v>
       </c>
       <c r="F14" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="C15" t="s">
         <v>298</v>
       </c>
@@ -2058,7 +2381,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="C16" t="s">
         <v>299</v>
       </c>
@@ -2072,7 +2395,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>245</v>
       </c>
@@ -2080,7 +2403,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>246</v>
       </c>
@@ -2094,2926 +2417,4276 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CDAE81-278D-FB4D-87E0-3FD9386FBA5C}">
+  <dimension ref="A1:L136"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" zoomScale="89" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="44" style="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="64" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="64" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="64" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="64" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62.83203125" style="64" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17">
+      <c r="A1" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="I1" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="34">
+      <c r="A2" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="G2" s="64">
+        <v>0</v>
+      </c>
+      <c r="H2" s="64">
+        <v>6.5</v>
+      </c>
+      <c r="I2" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="J2" s="64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="G4" s="71">
+        <v>0.01</v>
+      </c>
+      <c r="H4" s="71">
+        <v>0.62</v>
+      </c>
+      <c r="J4" s="64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="G5" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="H5" s="71">
+        <v>0.8</v>
+      </c>
+      <c r="J5" s="64" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="G6" s="71">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="G7" s="72">
+        <v>2</v>
+      </c>
+      <c r="H7" s="72">
+        <v>14</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="34">
+      <c r="A8" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="G8" s="73">
+        <v>3.5</v>
+      </c>
+      <c r="H8" s="72">
+        <v>10</v>
+      </c>
+      <c r="I8" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="J8" s="64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="34">
+      <c r="A9" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>322</v>
+      </c>
+      <c r="G9" s="72">
+        <v>0</v>
+      </c>
+      <c r="H9" s="72">
+        <v>14</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>323</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="122" customHeight="1">
+      <c r="A10" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>324</v>
+      </c>
+      <c r="G10" s="73">
+        <v>1.6</v>
+      </c>
+      <c r="H10" s="72">
+        <v>7</v>
+      </c>
+      <c r="I10" s="65" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="68">
+      <c r="A11" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>326</v>
+      </c>
+      <c r="D11" s="64">
+        <v>0</v>
+      </c>
+      <c r="E11" s="64">
+        <v>19</v>
+      </c>
+      <c r="F11" s="64">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I11" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="J11" s="64" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="D12" s="64">
+        <v>20</v>
+      </c>
+      <c r="E12" s="64">
+        <v>44</v>
+      </c>
+      <c r="F12" s="64">
+        <v>14.4</v>
+      </c>
+      <c r="I12" s="64" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="D13" s="64">
+        <v>45</v>
+      </c>
+      <c r="E13" s="64">
+        <v>54</v>
+      </c>
+      <c r="F13" s="64">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="D14" s="64">
+        <v>55</v>
+      </c>
+      <c r="E14" s="64">
+        <v>64</v>
+      </c>
+      <c r="F14" s="64">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="D15" s="64">
+        <v>65</v>
+      </c>
+      <c r="E15" s="64">
+        <v>74</v>
+      </c>
+      <c r="F15" s="64">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="D16" s="64">
+        <v>75</v>
+      </c>
+      <c r="E16" s="64">
+        <v>84</v>
+      </c>
+      <c r="F16" s="64">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="D17" s="64">
+        <v>85</v>
+      </c>
+      <c r="E17" s="64">
+        <v>100</v>
+      </c>
+      <c r="F17" s="64">
+        <v>31.8</v>
+      </c>
+      <c r="H17" s="68"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="C18" s="66"/>
+      <c r="D18" s="66">
+        <v>0</v>
+      </c>
+      <c r="E18" s="67">
+        <v>9</v>
+      </c>
+      <c r="F18" s="67">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="66" t="s">
+        <v>332</v>
+      </c>
+      <c r="J18" s="85" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="D19" s="68">
+        <v>10</v>
+      </c>
+      <c r="E19" s="69">
+        <v>19</v>
+      </c>
+      <c r="F19" s="69">
+        <v>2.5</v>
+      </c>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="D20" s="68">
+        <v>20</v>
+      </c>
+      <c r="E20" s="69">
+        <v>29</v>
+      </c>
+      <c r="F20" s="69">
+        <v>3.7</v>
+      </c>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="D21" s="68">
+        <v>30</v>
+      </c>
+      <c r="E21" s="69">
+        <v>39</v>
+      </c>
+      <c r="F21" s="69">
+        <v>5.9</v>
+      </c>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="D22" s="68">
+        <v>40</v>
+      </c>
+      <c r="E22" s="69">
+        <v>49</v>
+      </c>
+      <c r="F22" s="69">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="D23" s="68">
+        <v>50</v>
+      </c>
+      <c r="E23" s="69">
+        <v>59</v>
+      </c>
+      <c r="F23" s="69">
+        <v>13.4</v>
+      </c>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="D24" s="68">
+        <v>60</v>
+      </c>
+      <c r="E24" s="69">
+        <v>69</v>
+      </c>
+      <c r="F24" s="69">
+        <v>22</v>
+      </c>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="D25" s="68">
+        <v>70</v>
+      </c>
+      <c r="E25" s="69">
+        <v>79</v>
+      </c>
+      <c r="F25" s="69">
+        <v>34.1</v>
+      </c>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="D26" s="68">
+        <v>80</v>
+      </c>
+      <c r="E26" s="69">
+        <v>100</v>
+      </c>
+      <c r="F26" s="69">
+        <v>32.5</v>
+      </c>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+    </row>
+    <row r="27" spans="1:10" ht="51">
+      <c r="A27" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>348</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="77">
+        <v>0</v>
+      </c>
+      <c r="E27" s="77">
+        <v>9</v>
+      </c>
+      <c r="F27" s="66">
+        <v>100</v>
+      </c>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="91" t="s">
+        <v>330</v>
+      </c>
+      <c r="J27" s="66" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="51">
+      <c r="D28" s="78">
+        <v>10</v>
+      </c>
+      <c r="E28" s="78">
+        <v>19</v>
+      </c>
+      <c r="F28" s="68">
+        <v>100</v>
+      </c>
+      <c r="H28" s="68"/>
+      <c r="I28" s="65" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="D29" s="78">
+        <v>20</v>
+      </c>
+      <c r="E29" s="78">
+        <v>29</v>
+      </c>
+      <c r="F29" s="68">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="H29" s="68"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="D30" s="78">
+        <v>30</v>
+      </c>
+      <c r="E30" s="78">
+        <v>39</v>
+      </c>
+      <c r="F30" s="68">
+        <v>95.384615384615373</v>
+      </c>
+      <c r="H30" s="68"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="D31" s="78">
+        <v>40</v>
+      </c>
+      <c r="E31" s="78">
+        <v>49</v>
+      </c>
+      <c r="F31" s="68">
+        <v>91.845493562231766</v>
+      </c>
+      <c r="H31" s="68"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="D32" s="78">
+        <v>50</v>
+      </c>
+      <c r="E32" s="78">
+        <v>59</v>
+      </c>
+      <c r="F32" s="68">
+        <v>87.767584097859327</v>
+      </c>
+      <c r="H32" s="68"/>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="D33" s="78">
+        <v>60</v>
+      </c>
+      <c r="E33" s="78">
+        <v>69</v>
+      </c>
+      <c r="F33" s="68">
+        <v>81.333333333333329</v>
+      </c>
+      <c r="H33" s="68"/>
+    </row>
+    <row r="34" spans="3:10">
+      <c r="D34" s="78">
+        <v>70</v>
+      </c>
+      <c r="E34" s="78">
+        <v>79</v>
+      </c>
+      <c r="F34" s="68">
+        <v>64.173228346456696</v>
+      </c>
+      <c r="H34" s="68"/>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="D35" s="78">
+        <v>80</v>
+      </c>
+      <c r="E35" s="78">
+        <v>89</v>
+      </c>
+      <c r="F35" s="68">
+        <v>39.354838709677423</v>
+      </c>
+      <c r="H35" s="68"/>
+    </row>
+    <row r="36" spans="3:10">
+      <c r="D36" s="78">
+        <v>90</v>
+      </c>
+      <c r="E36" s="78">
+        <v>100</v>
+      </c>
+      <c r="F36" s="68">
+        <v>36.363636363636367</v>
+      </c>
+      <c r="H36" s="68"/>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="C37" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="78">
+        <v>0</v>
+      </c>
+      <c r="E37" s="78">
+        <v>9</v>
+      </c>
+      <c r="F37" s="68">
+        <v>100</v>
+      </c>
+      <c r="G37" s="68"/>
+    </row>
+    <row r="38" spans="3:10">
+      <c r="D38" s="78">
+        <v>10</v>
+      </c>
+      <c r="E38" s="78">
+        <v>19</v>
+      </c>
+      <c r="F38" s="68">
+        <v>100</v>
+      </c>
+      <c r="G38" s="68"/>
+    </row>
+    <row r="39" spans="3:10">
+      <c r="D39" s="78">
+        <v>20</v>
+      </c>
+      <c r="E39" s="78">
+        <v>29</v>
+      </c>
+      <c r="F39" s="68">
+        <v>98.181818181818187</v>
+      </c>
+      <c r="G39" s="68"/>
+    </row>
+    <row r="40" spans="3:10">
+      <c r="D40" s="78">
+        <v>30</v>
+      </c>
+      <c r="E40" s="78">
+        <v>39</v>
+      </c>
+      <c r="F40" s="68">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="G40" s="68"/>
+    </row>
+    <row r="41" spans="3:10">
+      <c r="D41" s="78">
+        <v>40</v>
+      </c>
+      <c r="E41" s="78">
+        <v>49</v>
+      </c>
+      <c r="F41" s="68">
+        <v>97.47899159663865</v>
+      </c>
+      <c r="G41" s="68"/>
+    </row>
+    <row r="42" spans="3:10">
+      <c r="D42" s="78">
+        <v>50</v>
+      </c>
+      <c r="E42" s="78">
+        <v>59</v>
+      </c>
+      <c r="F42" s="68">
+        <v>93.085106382978722</v>
+      </c>
+      <c r="G42" s="68"/>
+    </row>
+    <row r="43" spans="3:10">
+      <c r="D43" s="78">
+        <v>60</v>
+      </c>
+      <c r="E43" s="78">
+        <v>69</v>
+      </c>
+      <c r="F43" s="68">
+        <v>87.982832618025753</v>
+      </c>
+      <c r="G43" s="68"/>
+    </row>
+    <row r="44" spans="3:10">
+      <c r="D44" s="78">
+        <v>70</v>
+      </c>
+      <c r="E44" s="78">
+        <v>79</v>
+      </c>
+      <c r="F44" s="68">
+        <v>72.588832487309645</v>
+      </c>
+      <c r="G44" s="68"/>
+    </row>
+    <row r="45" spans="3:10">
+      <c r="D45" s="78">
+        <v>80</v>
+      </c>
+      <c r="E45" s="78">
+        <v>89</v>
+      </c>
+      <c r="F45" s="68">
+        <v>51.898734177215189</v>
+      </c>
+      <c r="G45" s="68"/>
+    </row>
+    <row r="46" spans="3:10">
+      <c r="C46" s="70"/>
+      <c r="D46" s="79">
+        <v>90</v>
+      </c>
+      <c r="E46" s="79">
+        <v>100</v>
+      </c>
+      <c r="F46" s="68">
+        <v>53.571428571428569</v>
+      </c>
+      <c r="G46" s="68"/>
+    </row>
+    <row r="47" spans="3:10" ht="17">
+      <c r="C47" s="64" t="s">
+        <v>347</v>
+      </c>
+      <c r="D47" s="66">
+        <v>0</v>
+      </c>
+      <c r="E47" s="67">
+        <v>9</v>
+      </c>
+      <c r="F47" s="66">
+        <v>99.936455176459091</v>
+      </c>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="91" t="s">
+        <v>332</v>
+      </c>
+      <c r="J47" s="66" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10">
+      <c r="D48" s="68">
+        <v>10</v>
+      </c>
+      <c r="E48" s="69">
+        <v>19</v>
+      </c>
+      <c r="F48" s="64">
+        <v>99.932988120621388</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="D49" s="68">
+        <v>20</v>
+      </c>
+      <c r="E49" s="69">
+        <v>29</v>
+      </c>
+      <c r="F49" s="64">
+        <v>99.850385544941886</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="D50" s="68">
+        <v>30</v>
+      </c>
+      <c r="E50" s="69">
+        <v>39</v>
+      </c>
+      <c r="F50" s="64">
+        <v>99.603442417698005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="D51" s="68">
+        <v>40</v>
+      </c>
+      <c r="E51" s="69">
+        <v>49</v>
+      </c>
+      <c r="F51" s="64">
+        <v>99.049461757149572</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="D52" s="68">
+        <v>50</v>
+      </c>
+      <c r="E52" s="69">
+        <v>59</v>
+      </c>
+      <c r="F52" s="64">
+        <v>97.608302866304172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="D53" s="68">
+        <v>60</v>
+      </c>
+      <c r="E53" s="69">
+        <v>69</v>
+      </c>
+      <c r="F53" s="64">
+        <v>93.325959320026584</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="D54" s="68">
+        <v>70</v>
+      </c>
+      <c r="E54" s="69">
+        <v>79</v>
+      </c>
+      <c r="F54" s="64">
+        <v>83.36373655607494</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="D55" s="68">
+        <v>80</v>
+      </c>
+      <c r="E55" s="69">
+        <v>100</v>
+      </c>
+      <c r="F55" s="64">
+        <v>71.332079268559426</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="51">
+      <c r="A56" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="B56" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="C56" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" s="85">
+        <v>0</v>
+      </c>
+      <c r="E56" s="85">
+        <v>9</v>
+      </c>
+      <c r="F56" s="86">
+        <v>0</v>
+      </c>
+      <c r="G56" s="66"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="J56" s="66" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="D57" s="74">
+        <v>10</v>
+      </c>
+      <c r="E57" s="74">
+        <v>19</v>
+      </c>
+      <c r="F57" s="87">
+        <v>0</v>
+      </c>
+      <c r="I57" s="64" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="D58" s="74">
+        <v>20</v>
+      </c>
+      <c r="E58" s="74">
+        <v>29</v>
+      </c>
+      <c r="F58" s="87">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="D59" s="74">
+        <v>30</v>
+      </c>
+      <c r="E59" s="74">
+        <v>39</v>
+      </c>
+      <c r="F59" s="87">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="D60" s="74">
+        <v>40</v>
+      </c>
+      <c r="E60" s="74">
+        <v>49</v>
+      </c>
+      <c r="F60" s="87">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="D61" s="74">
+        <v>50</v>
+      </c>
+      <c r="E61" s="74">
+        <v>59</v>
+      </c>
+      <c r="F61" s="87">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="D62" s="74">
+        <v>60</v>
+      </c>
+      <c r="E62" s="74">
+        <v>69</v>
+      </c>
+      <c r="F62" s="87">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="D63" s="74">
+        <v>70</v>
+      </c>
+      <c r="E63" s="74">
+        <v>79</v>
+      </c>
+      <c r="F63" s="87">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="D64" s="74">
+        <v>80</v>
+      </c>
+      <c r="E64" s="74">
+        <v>89</v>
+      </c>
+      <c r="F64" s="87">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10">
+      <c r="D65" s="88">
+        <v>90</v>
+      </c>
+      <c r="E65" s="74">
+        <v>100</v>
+      </c>
+      <c r="F65" s="87">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10">
+      <c r="C66" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="85">
+        <v>0</v>
+      </c>
+      <c r="E66" s="85">
+        <v>9</v>
+      </c>
+      <c r="F66" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10">
+      <c r="D67" s="74">
+        <v>10</v>
+      </c>
+      <c r="E67" s="74">
+        <v>19</v>
+      </c>
+      <c r="F67" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10">
+      <c r="D68" s="74">
+        <v>20</v>
+      </c>
+      <c r="E68" s="74">
+        <v>29</v>
+      </c>
+      <c r="F68" s="87">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10">
+      <c r="D69" s="74">
+        <v>30</v>
+      </c>
+      <c r="E69" s="74">
+        <v>39</v>
+      </c>
+      <c r="F69" s="87">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10">
+      <c r="D70" s="74">
+        <v>40</v>
+      </c>
+      <c r="E70" s="74">
+        <v>49</v>
+      </c>
+      <c r="F70" s="87">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10">
+      <c r="D71" s="74">
+        <v>50</v>
+      </c>
+      <c r="E71" s="74">
+        <v>59</v>
+      </c>
+      <c r="F71" s="87">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10">
+      <c r="D72" s="74">
+        <v>60</v>
+      </c>
+      <c r="E72" s="74">
+        <v>69</v>
+      </c>
+      <c r="F72" s="87">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10">
+      <c r="D73" s="74">
+        <v>70</v>
+      </c>
+      <c r="E73" s="74">
+        <v>79</v>
+      </c>
+      <c r="F73" s="87">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10">
+      <c r="D74" s="74">
+        <v>80</v>
+      </c>
+      <c r="E74" s="74">
+        <v>89</v>
+      </c>
+      <c r="F74" s="87">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10">
+      <c r="D75" s="88">
+        <v>90</v>
+      </c>
+      <c r="E75" s="88">
+        <v>100</v>
+      </c>
+      <c r="F75" s="89">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10" ht="17">
+      <c r="C76" s="66" t="s">
+        <v>347</v>
+      </c>
+      <c r="D76" s="66">
+        <v>0</v>
+      </c>
+      <c r="E76" s="67">
+        <v>9</v>
+      </c>
+      <c r="F76" s="66">
+        <v>6.3544823540913092E-2</v>
+      </c>
+      <c r="G76" s="66"/>
+      <c r="H76" s="66"/>
+      <c r="I76" s="91" t="s">
+        <v>332</v>
+      </c>
+      <c r="J76" s="66" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10">
+      <c r="D77" s="68">
+        <v>10</v>
+      </c>
+      <c r="E77" s="69">
+        <v>19</v>
+      </c>
+      <c r="F77" s="64">
+        <v>6.701187937861712E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10">
+      <c r="D78" s="68">
+        <v>20</v>
+      </c>
+      <c r="E78" s="69">
+        <v>29</v>
+      </c>
+      <c r="F78" s="64">
+        <v>0.14961445505811946</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10">
+      <c r="D79" s="68">
+        <v>30</v>
+      </c>
+      <c r="E79" s="69">
+        <v>39</v>
+      </c>
+      <c r="F79" s="64">
+        <v>0.39655758230198884</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10">
+      <c r="D80" s="68">
+        <v>40</v>
+      </c>
+      <c r="E80" s="69">
+        <v>49</v>
+      </c>
+      <c r="F80" s="87">
+        <v>0.95053824285042821</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="D81" s="68">
+        <v>50</v>
+      </c>
+      <c r="E81" s="69">
+        <v>59</v>
+      </c>
+      <c r="F81" s="87">
+        <v>2.391697133695827</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="C82" s="90"/>
+      <c r="D82" s="68">
+        <v>60</v>
+      </c>
+      <c r="E82" s="69">
+        <v>69</v>
+      </c>
+      <c r="F82" s="87">
+        <v>6.6740406799734089</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="C83" s="90"/>
+      <c r="D83" s="68">
+        <v>70</v>
+      </c>
+      <c r="E83" s="69">
+        <v>79</v>
+      </c>
+      <c r="F83" s="87">
+        <v>16.636263443925056</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="C84" s="90"/>
+      <c r="D84" s="68">
+        <v>80</v>
+      </c>
+      <c r="E84" s="69">
+        <v>100</v>
+      </c>
+      <c r="F84" s="87">
+        <v>28.667920731440571</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="B85" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="G85" s="64">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="H85" s="64">
+        <v>2.18E-2</v>
+      </c>
+      <c r="J85" s="64" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="G86" s="80">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H86" s="64">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="J86" s="64" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="G87" s="80">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="H87" s="64">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="J87" s="64" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="B88" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="G88" s="81">
+        <v>0.27</v>
+      </c>
+      <c r="H88" s="71">
+        <v>0.44</v>
+      </c>
+      <c r="J88" s="64" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="G89" s="82">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="H89" s="75">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="J89" s="64" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="G90" s="80">
+        <v>11.1</v>
+      </c>
+      <c r="H90" s="71">
+        <v>0.17</v>
+      </c>
+      <c r="J90" s="64" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="G91" s="82">
+        <v>0.155</v>
+      </c>
+      <c r="H91" s="75">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="J91" s="64" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="G92" s="82">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H92" s="75">
+        <v>0.106</v>
+      </c>
+      <c r="J92" s="64" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="127" spans="7:12" ht="22">
+      <c r="G127" s="83"/>
+      <c r="I127" s="83"/>
+      <c r="J127" s="83"/>
+      <c r="K127" s="83"/>
+      <c r="L127" s="83"/>
+    </row>
+    <row r="128" spans="7:12" ht="22">
+      <c r="G128" s="83"/>
+      <c r="I128" s="83"/>
+      <c r="J128" s="83"/>
+      <c r="K128" s="83"/>
+      <c r="L128" s="83"/>
+    </row>
+    <row r="129" spans="3:12" ht="22">
+      <c r="G129" s="83"/>
+      <c r="I129" s="83"/>
+      <c r="J129" s="83"/>
+      <c r="K129" s="83"/>
+      <c r="L129" s="83"/>
+    </row>
+    <row r="130" spans="3:12" ht="22">
+      <c r="C130" s="83"/>
+      <c r="D130" s="83"/>
+      <c r="E130" s="83"/>
+      <c r="F130" s="83"/>
+      <c r="G130" s="83"/>
+      <c r="H130" s="83"/>
+      <c r="I130" s="83"/>
+      <c r="J130" s="83"/>
+      <c r="K130" s="83"/>
+      <c r="L130" s="83"/>
+    </row>
+    <row r="131" spans="3:12" ht="22">
+      <c r="C131" s="83"/>
+      <c r="D131" s="83"/>
+      <c r="E131" s="83"/>
+      <c r="F131" s="83"/>
+      <c r="G131" s="83"/>
+      <c r="H131" s="83"/>
+      <c r="I131" s="83"/>
+      <c r="J131" s="83"/>
+      <c r="K131" s="83"/>
+      <c r="L131" s="83"/>
+    </row>
+    <row r="132" spans="3:12" ht="22">
+      <c r="C132" s="83"/>
+      <c r="D132" s="83"/>
+      <c r="E132" s="83"/>
+      <c r="F132" s="83"/>
+      <c r="G132" s="83"/>
+      <c r="H132" s="83"/>
+      <c r="I132" s="83"/>
+      <c r="J132" s="83"/>
+      <c r="K132" s="83"/>
+      <c r="L132" s="83"/>
+    </row>
+    <row r="133" spans="3:12" ht="22">
+      <c r="C133" s="83"/>
+      <c r="D133" s="83"/>
+      <c r="E133" s="83"/>
+      <c r="F133" s="83"/>
+      <c r="G133" s="83"/>
+      <c r="H133" s="83"/>
+      <c r="I133" s="83"/>
+      <c r="J133" s="83"/>
+      <c r="K133" s="83"/>
+      <c r="L133" s="83"/>
+    </row>
+    <row r="134" spans="3:12" ht="22">
+      <c r="C134" s="83"/>
+      <c r="D134" s="83"/>
+      <c r="E134" s="83"/>
+      <c r="F134" s="83"/>
+      <c r="G134" s="83"/>
+      <c r="H134" s="83"/>
+      <c r="I134" s="83"/>
+      <c r="J134" s="83"/>
+      <c r="K134" s="83"/>
+      <c r="L134" s="83"/>
+    </row>
+    <row r="135" spans="3:12" ht="22">
+      <c r="C135" s="83"/>
+      <c r="D135" s="83"/>
+      <c r="E135" s="83"/>
+      <c r="F135" s="83"/>
+      <c r="G135" s="83"/>
+      <c r="H135" s="83"/>
+      <c r="I135" s="83"/>
+      <c r="J135" s="83"/>
+      <c r="K135" s="83"/>
+      <c r="L135" s="83"/>
+    </row>
+    <row r="136" spans="3:12" ht="22">
+      <c r="C136" s="84"/>
+      <c r="D136" s="84"/>
+      <c r="E136" s="84"/>
+      <c r="F136" s="84"/>
+      <c r="G136" s="84"/>
+      <c r="H136" s="84"/>
+      <c r="I136" s="84"/>
+      <c r="J136" s="84"/>
+      <c r="K136" s="84"/>
+      <c r="L136" s="84"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P161"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I86" sqref="I86"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="76.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="18" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="18" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="18" customWidth="1"/>
-    <col min="9" max="9" width="33.83203125" style="18" customWidth="1"/>
-    <col min="10" max="10" width="23.5" style="18" customWidth="1"/>
-    <col min="11" max="11" width="21.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.1640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" style="18" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.6640625" style="18"/>
+    <col min="1" max="1" width="23.83203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="76.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="17" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="17" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="17" customWidth="1"/>
+    <col min="9" max="9" width="33.83203125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="23.5" style="17" customWidth="1"/>
+    <col min="11" max="11" width="21.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.6640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="17" t="s">
+    <row r="1" spans="1:16" ht="20" customHeight="1" thickBot="1">
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="1:16" ht="20" customHeight="1">
+      <c r="B2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="35"/>
-    </row>
-    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="34"/>
+    </row>
+    <row r="3" spans="1:16" ht="30" customHeight="1">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="18">
+      <c r="D3" s="36"/>
+      <c r="E3" s="17">
         <v>2.82</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <v>2</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="17">
         <v>3</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="P3" s="24"/>
-    </row>
-    <row r="4" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="23"/>
-      <c r="E4" s="19">
+      <c r="P3" s="23"/>
+    </row>
+    <row r="4" spans="1:16" ht="48" customHeight="1">
+      <c r="B4" s="22"/>
+      <c r="E4" s="18">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>2.06</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="17">
         <v>2.52</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="P4" s="24"/>
-    </row>
-    <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
-      <c r="E5" s="18">
+      <c r="P4" s="23"/>
+    </row>
+    <row r="5" spans="1:16" ht="20" customHeight="1">
+      <c r="B5" s="22"/>
+      <c r="E5" s="17">
         <v>2.68</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>2.4700000000000002</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <v>2.86</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="P5" s="24"/>
-    </row>
-    <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="23"/>
-      <c r="E6" s="18">
+      <c r="P5" s="23"/>
+    </row>
+    <row r="6" spans="1:16" ht="20" customHeight="1">
+      <c r="B6" s="22"/>
+      <c r="E6" s="17">
         <v>6.49</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <v>6.31</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
         <v>6.66</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="P6" s="24"/>
-    </row>
-    <row r="7" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="23"/>
-      <c r="E7" s="18">
+      <c r="P6" s="23"/>
+    </row>
+    <row r="7" spans="1:16" ht="20" customHeight="1">
+      <c r="B7" s="22"/>
+      <c r="E7" s="17">
         <v>2.9</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <v>2.3199999999999998</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <v>3.63</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="P7" s="24"/>
-    </row>
-    <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="23"/>
-      <c r="E8" s="18">
+      <c r="P7" s="23"/>
+    </row>
+    <row r="8" spans="1:16" ht="20" customHeight="1">
+      <c r="B8" s="22"/>
+      <c r="E8" s="17">
         <v>2.92</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <v>2.2799999999999998</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>3.67</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="P8" s="24"/>
-    </row>
-    <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="23"/>
-      <c r="E9" s="18">
+      <c r="P8" s="23"/>
+    </row>
+    <row r="9" spans="1:16" ht="20" customHeight="1">
+      <c r="B9" s="22"/>
+      <c r="E9" s="17">
         <v>3.11</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>2.39</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <v>4.13</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="P9" s="24"/>
-    </row>
-    <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="23"/>
-      <c r="E10" s="18">
+      <c r="P9" s="23"/>
+    </row>
+    <row r="10" spans="1:16" ht="20" customHeight="1">
+      <c r="B10" s="22"/>
+      <c r="E10" s="17">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <v>2</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <v>3.1</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="P10" s="24"/>
-    </row>
-    <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="23"/>
-      <c r="E11" s="18">
+      <c r="P10" s="23"/>
+    </row>
+    <row r="11" spans="1:16" ht="20" customHeight="1">
+      <c r="B11" s="22"/>
+      <c r="E11" s="17">
         <v>1.95</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <v>1.4</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <v>2.5</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="P11" s="24"/>
-    </row>
-    <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="23"/>
-      <c r="E12" s="18">
+      <c r="P11" s="23"/>
+    </row>
+    <row r="12" spans="1:16" ht="20" customHeight="1">
+      <c r="B12" s="22"/>
+      <c r="E12" s="17">
         <v>4.08</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="P12" s="24"/>
-    </row>
-    <row r="13" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="23"/>
-      <c r="E13" s="18">
+      <c r="P12" s="23"/>
+    </row>
+    <row r="13" spans="1:16" ht="20" customHeight="1">
+      <c r="B13" s="22"/>
+      <c r="E13" s="17">
         <v>2.2400000000000002</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <v>1.96</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <v>2.5499999999999998</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="I13" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="P13" s="24"/>
-    </row>
-    <row r="14" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="23"/>
-      <c r="E14" s="18">
+      <c r="P13" s="23"/>
+    </row>
+    <row r="14" spans="1:16" ht="20" customHeight="1">
+      <c r="B14" s="22"/>
+      <c r="E14" s="17">
         <v>3.58</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="17">
         <v>2.89</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="17">
         <v>4.3899999999999997</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="P14" s="24"/>
-    </row>
-    <row r="15" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="23"/>
-      <c r="E15" s="18">
+      <c r="P14" s="23"/>
+    </row>
+    <row r="15" spans="1:16" ht="20" customHeight="1">
+      <c r="B15" s="22"/>
+      <c r="E15" s="17">
         <v>2.5</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="17">
         <v>1.5</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <v>3.5</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="P15" s="24"/>
-    </row>
-    <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="23"/>
-      <c r="E16" s="18">
+      <c r="P15" s="23"/>
+    </row>
+    <row r="16" spans="1:16" ht="20" customHeight="1">
+      <c r="B16" s="22"/>
+      <c r="E16" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="39" t="s">
+      <c r="I16" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="P16" s="24"/>
-    </row>
-    <row r="17" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="23"/>
-      <c r="E17" s="18">
+      <c r="P16" s="23"/>
+    </row>
+    <row r="17" spans="1:16" ht="20" customHeight="1">
+      <c r="B17" s="22"/>
+      <c r="E17" s="17">
         <v>6.47</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="17">
         <v>5.71</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="17">
         <v>7.23</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I17" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="24"/>
-    </row>
-    <row r="18" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="23"/>
-      <c r="E18" s="18">
+      <c r="P17" s="23"/>
+    </row>
+    <row r="18" spans="1:16" ht="20" customHeight="1">
+      <c r="B18" s="22"/>
+      <c r="E18" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="17">
         <v>1.4</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="17">
         <v>3.9</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="39" t="s">
+      <c r="I18" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="24"/>
-    </row>
-    <row r="19" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="23"/>
-      <c r="E19" s="18">
+      <c r="P18" s="23"/>
+    </row>
+    <row r="19" spans="1:16" ht="20" customHeight="1">
+      <c r="B19" s="22"/>
+      <c r="E19" s="17">
         <v>3.28</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="P19" s="24"/>
-    </row>
-    <row r="20" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="23"/>
-      <c r="E20" s="18">
+      <c r="P19" s="23"/>
+    </row>
+    <row r="20" spans="1:16" ht="20" customHeight="1">
+      <c r="B20" s="22"/>
+      <c r="E20" s="17">
         <v>5.7</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="17">
         <v>3.8</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="17">
         <v>8.9</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="P20" s="24"/>
-    </row>
-    <row r="21" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="23"/>
-      <c r="E21" s="20">
+      <c r="P20" s="23"/>
+    </row>
+    <row r="21" spans="1:16" ht="20" customHeight="1">
+      <c r="B21" s="22"/>
+      <c r="E21" s="19">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="P21" s="24"/>
-    </row>
-    <row r="22" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="23"/>
-      <c r="E22" s="20">
+      <c r="P21" s="23"/>
+    </row>
+    <row r="22" spans="1:16" ht="20" customHeight="1">
+      <c r="B22" s="22"/>
+      <c r="E22" s="19">
         <v>6.3</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="P22" s="24"/>
-    </row>
-    <row r="23" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="23"/>
-      <c r="E23" s="20">
+      <c r="P22" s="23"/>
+    </row>
+    <row r="23" spans="1:16" ht="20" customHeight="1">
+      <c r="B23" s="22"/>
+      <c r="E23" s="19">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="P23" s="24"/>
-    </row>
-    <row r="24" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="23"/>
-      <c r="E24" s="20">
+      <c r="P23" s="23"/>
+    </row>
+    <row r="24" spans="1:16" ht="20" customHeight="1">
+      <c r="B24" s="22"/>
+      <c r="E24" s="19">
         <v>1.94</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="P24" s="24"/>
-    </row>
-    <row r="25" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="23"/>
-      <c r="E25" s="20"/>
-      <c r="P25" s="24"/>
-    </row>
-    <row r="26" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="38" t="s">
+      <c r="P24" s="23"/>
+    </row>
+    <row r="25" spans="1:16" ht="20" customHeight="1">
+      <c r="B25" s="22"/>
+      <c r="E25" s="19"/>
+      <c r="P25" s="23"/>
+    </row>
+    <row r="26" spans="1:16" ht="20" customHeight="1">
+      <c r="B26" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="18">
+      <c r="D26" s="36"/>
+      <c r="E26" s="17">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="17">
         <v>1.04</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="17">
         <v>1.18</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="H26" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="39" t="s">
+      <c r="I26" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="P26" s="24"/>
-    </row>
-    <row r="27" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="23"/>
-      <c r="E27" s="18">
+      <c r="P26" s="23"/>
+    </row>
+    <row r="27" spans="1:16" ht="20" customHeight="1">
+      <c r="B27" s="22"/>
+      <c r="E27" s="17">
         <v>0.52</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="17">
         <v>0.39</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="17">
         <v>0.71</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="39" t="s">
+      <c r="I27" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="P27" s="24"/>
-    </row>
-    <row r="28" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="23"/>
-      <c r="E28" s="18">
+      <c r="P27" s="23"/>
+    </row>
+    <row r="28" spans="1:16" ht="20" customHeight="1">
+      <c r="B28" s="22"/>
+      <c r="E28" s="17">
         <v>0.35</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="17">
         <v>0.27</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="17">
         <v>0.5</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="39" t="s">
+      <c r="I28" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="P28" s="24"/>
-    </row>
-    <row r="29" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="25"/>
-      <c r="E29" s="21">
+      <c r="P28" s="23"/>
+    </row>
+    <row r="29" spans="1:16" ht="20" customHeight="1">
+      <c r="B29" s="24"/>
+      <c r="E29" s="20">
         <v>0.315</v>
       </c>
-      <c r="H29" s="18" t="s">
+      <c r="H29" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="39" t="s">
+      <c r="I29" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="P29" s="24"/>
-    </row>
-    <row r="30" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="25"/>
-      <c r="E30" s="21"/>
-      <c r="I30" s="39"/>
-      <c r="P30" s="24"/>
-    </row>
-    <row r="31" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
+      <c r="P29" s="23"/>
+    </row>
+    <row r="30" spans="1:16" ht="20" customHeight="1">
+      <c r="B30" s="24"/>
+      <c r="E30" s="20"/>
+      <c r="I30" s="38"/>
+      <c r="P30" s="23"/>
+    </row>
+    <row r="31" spans="1:16" ht="20" customHeight="1">
+      <c r="A31" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="E31" s="21">
-        <v>0</v>
-      </c>
-      <c r="I31" s="39"/>
-      <c r="P31" s="24"/>
-    </row>
-    <row r="32" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="25"/>
-      <c r="E32" s="21"/>
-      <c r="I32" s="39"/>
-      <c r="P32" s="24"/>
-    </row>
-    <row r="33" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
+      <c r="E31" s="20">
+        <v>0</v>
+      </c>
+      <c r="I31" s="38"/>
+      <c r="P31" s="23"/>
+    </row>
+    <row r="32" spans="1:16" ht="20" customHeight="1">
+      <c r="B32" s="24"/>
+      <c r="E32" s="20"/>
+      <c r="I32" s="38"/>
+      <c r="P32" s="23"/>
+    </row>
+    <row r="33" spans="1:16" ht="20" customHeight="1">
+      <c r="A33" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="E33" s="21">
-        <v>0</v>
-      </c>
-      <c r="H33" s="18" t="s">
+      <c r="E33" s="20">
+        <v>0</v>
+      </c>
+      <c r="H33" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="I33" s="61" t="s">
+      <c r="I33" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="P33" s="24"/>
-    </row>
-    <row r="34" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="23"/>
-      <c r="P34" s="24"/>
-    </row>
-    <row r="35" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="25" t="s">
+      <c r="P33" s="23"/>
+    </row>
+    <row r="34" spans="1:16" ht="20" customHeight="1">
+      <c r="B34" s="22"/>
+      <c r="P34" s="23"/>
+    </row>
+    <row r="35" spans="1:16" ht="20" customHeight="1">
+      <c r="B35" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="P35" s="24"/>
-    </row>
-    <row r="36" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="P35" s="23"/>
+    </row>
+    <row r="36" spans="1:16" ht="51" customHeight="1">
+      <c r="A36" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="17">
         <v>2.52</v>
       </c>
-      <c r="F36" s="18">
-        <v>0</v>
-      </c>
-      <c r="G36" s="18">
+      <c r="F36" s="17">
+        <v>0</v>
+      </c>
+      <c r="G36" s="17">
         <v>5</v>
       </c>
-      <c r="H36" s="37" t="s">
+      <c r="H36" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="I36" s="39" t="s">
+      <c r="I36" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="P36" s="24"/>
-    </row>
-    <row r="37" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="23"/>
-      <c r="P37" s="24"/>
-    </row>
-    <row r="38" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="25" t="s">
+      <c r="P36" s="23"/>
+    </row>
+    <row r="37" spans="1:16" ht="20" customHeight="1">
+      <c r="B37" s="22"/>
+      <c r="P37" s="23"/>
+    </row>
+    <row r="38" spans="1:16" ht="20" customHeight="1">
+      <c r="B38" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="P38" s="24"/>
-    </row>
-    <row r="39" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="23" t="s">
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="P38" s="23"/>
+    </row>
+    <row r="39" spans="1:16" ht="20" customHeight="1">
+      <c r="B39" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="D39" s="47"/>
-      <c r="E39" s="22">
+      <c r="D39" s="46"/>
+      <c r="E39" s="21">
         <v>3.5</v>
       </c>
-      <c r="H39" s="27" t="s">
+      <c r="H39" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="27" t="s">
+      <c r="I39" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="P39" s="24"/>
-    </row>
-    <row r="40" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="23"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="18">
+      <c r="P39" s="23"/>
+    </row>
+    <row r="40" spans="1:16" ht="20" customHeight="1">
+      <c r="B40" s="22"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="17">
         <v>2.5</v>
       </c>
-      <c r="I40" s="18" t="s">
+      <c r="I40" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="P40" s="24"/>
-    </row>
-    <row r="41" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="23"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="P41" s="24"/>
-    </row>
-    <row r="42" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
+      <c r="P40" s="23"/>
+    </row>
+    <row r="41" spans="1:16" ht="20" customHeight="1">
+      <c r="B41" s="22"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="P41" s="23"/>
+    </row>
+    <row r="42" spans="1:16" ht="20" customHeight="1">
+      <c r="A42" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="17">
         <v>5.4</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="17">
         <v>3.8</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="17">
         <v>9</v>
       </c>
-      <c r="H42" s="18" t="s">
+      <c r="H42" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="I42" s="18" t="s">
+      <c r="I42" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="P42" s="24"/>
-    </row>
-    <row r="43" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="25"/>
-      <c r="E43" s="18">
+      <c r="P42" s="23"/>
+    </row>
+    <row r="43" spans="1:16" ht="20" customHeight="1">
+      <c r="B43" s="24"/>
+      <c r="E43" s="17">
         <v>4.8</v>
       </c>
-      <c r="H43" s="18" t="s">
+      <c r="H43" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I43" s="18" t="s">
+      <c r="I43" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="P43" s="24"/>
-    </row>
-    <row r="44" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="25"/>
-      <c r="E44" s="18">
+      <c r="P43" s="23"/>
+    </row>
+    <row r="44" spans="1:16" ht="20" customHeight="1">
+      <c r="B44" s="24"/>
+      <c r="E44" s="17">
         <v>4</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="H44" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I44" s="18" t="s">
+      <c r="I44" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="P44" s="24"/>
-    </row>
-    <row r="45" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="25"/>
-      <c r="E45" s="18">
+      <c r="P44" s="23"/>
+    </row>
+    <row r="45" spans="1:16" ht="20" customHeight="1">
+      <c r="B45" s="24"/>
+      <c r="E45" s="17">
         <v>5.2</v>
       </c>
-      <c r="H45" s="18" t="s">
+      <c r="H45" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I45" s="18" t="s">
+      <c r="I45" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="P45" s="24"/>
-    </row>
-    <row r="46" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="25"/>
-      <c r="E46" s="18">
+      <c r="P45" s="23"/>
+    </row>
+    <row r="46" spans="1:16" ht="20" customHeight="1">
+      <c r="B46" s="24"/>
+      <c r="E46" s="17">
         <v>5</v>
       </c>
-      <c r="I46" s="18" t="s">
+      <c r="I46" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="24"/>
-    </row>
-    <row r="47" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="25"/>
-      <c r="P47" s="24"/>
-    </row>
-    <row r="48" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18" t="s">
+      <c r="P46" s="23"/>
+    </row>
+    <row r="47" spans="1:16" ht="20" customHeight="1">
+      <c r="B47" s="24"/>
+      <c r="P47" s="23"/>
+    </row>
+    <row r="48" spans="1:16" ht="70" customHeight="1">
+      <c r="A48" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="22">
-        <v>0</v>
-      </c>
-      <c r="F48" s="18">
+      <c r="E48" s="21">
+        <v>0</v>
+      </c>
+      <c r="F48" s="17">
         <v>0.2</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="17">
         <v>0.4</v>
       </c>
-      <c r="H48" s="18" t="s">
+      <c r="H48" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="I48" s="18" t="s">
+      <c r="I48" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="P48" s="24"/>
-    </row>
-    <row r="49" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="23"/>
-      <c r="F49" s="18">
+      <c r="P48" s="23"/>
+    </row>
+    <row r="49" spans="1:16" ht="20" customHeight="1">
+      <c r="B49" s="22"/>
+      <c r="F49" s="17">
         <v>0.2</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="17">
         <v>0.8</v>
       </c>
-      <c r="I49" s="18" t="s">
+      <c r="I49" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="P49" s="24"/>
-    </row>
-    <row r="50" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="23"/>
-      <c r="E50" s="22">
+      <c r="P49" s="23"/>
+    </row>
+    <row r="50" spans="1:16" ht="20" customHeight="1">
+      <c r="B50" s="22"/>
+      <c r="E50" s="21">
         <v>0.2</v>
       </c>
-      <c r="H50" s="27" t="s">
+      <c r="H50" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I50" s="27" t="s">
+      <c r="I50" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="P50" s="24"/>
-    </row>
-    <row r="51" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="23"/>
-      <c r="E51" s="22">
+      <c r="P50" s="23"/>
+    </row>
+    <row r="51" spans="1:16" ht="20" customHeight="1">
+      <c r="B51" s="22"/>
+      <c r="E51" s="21">
         <v>0.4</v>
       </c>
-      <c r="H51" s="27" t="s">
+      <c r="H51" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I51" s="27" t="s">
+      <c r="I51" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="P51" s="24"/>
-    </row>
-    <row r="52" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="23"/>
-      <c r="E52" s="22">
+      <c r="P51" s="23"/>
+    </row>
+    <row r="52" spans="1:16" ht="20" customHeight="1">
+      <c r="B52" s="22"/>
+      <c r="E52" s="21">
         <v>0.34</v>
       </c>
-      <c r="H52" s="27" t="s">
+      <c r="H52" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I52" s="27" t="s">
+      <c r="I52" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="P52" s="24"/>
-    </row>
-    <row r="53" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="23"/>
-      <c r="E53" s="22">
+      <c r="P52" s="23"/>
+    </row>
+    <row r="53" spans="1:16" ht="20" customHeight="1">
+      <c r="B53" s="22"/>
+      <c r="E53" s="21">
         <v>0.01</v>
       </c>
-      <c r="H53" s="27" t="s">
+      <c r="H53" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I53" s="27" t="s">
+      <c r="I53" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="P53" s="24"/>
-    </row>
-    <row r="54" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="23"/>
-      <c r="E54" s="22">
+      <c r="P53" s="23"/>
+    </row>
+    <row r="54" spans="1:16" ht="20" customHeight="1">
+      <c r="B54" s="22"/>
+      <c r="E54" s="21">
         <v>0.04</v>
       </c>
-      <c r="H54" s="27" t="s">
+      <c r="H54" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I54" s="27" t="s">
+      <c r="I54" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="P54" s="24"/>
-    </row>
-    <row r="55" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="23"/>
-      <c r="E55" s="22">
+      <c r="P54" s="23"/>
+    </row>
+    <row r="55" spans="1:16" ht="20" customHeight="1">
+      <c r="B55" s="22"/>
+      <c r="E55" s="21">
         <v>0.3</v>
       </c>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27" t="s">
+      <c r="H55" s="26"/>
+      <c r="I55" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="P55" s="24"/>
-    </row>
-    <row r="56" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="23"/>
-      <c r="P56" s="24"/>
-    </row>
-    <row r="57" spans="1:16" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="23" t="s">
+      <c r="P55" s="23"/>
+    </row>
+    <row r="56" spans="1:16" ht="20" customHeight="1">
+      <c r="B56" s="22"/>
+      <c r="P56" s="23"/>
+    </row>
+    <row r="57" spans="1:16" ht="44" customHeight="1">
+      <c r="B57" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="17">
         <v>6</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="17">
         <v>3.5</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="17">
         <v>9.5</v>
       </c>
-      <c r="H57" s="18" t="s">
+      <c r="H57" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I57" s="18" t="s">
+      <c r="I57" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="J57" s="53" t="s">
+      <c r="J57" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="P57" s="24"/>
-    </row>
-    <row r="58" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="23"/>
-      <c r="J58" s="54"/>
-      <c r="P58" s="24"/>
-    </row>
-    <row r="59" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="25" t="s">
+      <c r="P57" s="23"/>
+    </row>
+    <row r="58" spans="1:16" ht="20" customHeight="1">
+      <c r="B58" s="22"/>
+      <c r="J58" s="53"/>
+      <c r="P58" s="23"/>
+    </row>
+    <row r="59" spans="1:16" ht="20" customHeight="1">
+      <c r="B59" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="P59" s="24"/>
-    </row>
-    <row r="60" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="18" t="s">
+      <c r="P59" s="23"/>
+    </row>
+    <row r="60" spans="1:16" ht="20" customHeight="1">
+      <c r="A60" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="E60" s="52">
+      <c r="E60" s="51">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F60" s="27"/>
-      <c r="H60" s="18" t="s">
+      <c r="F60" s="26"/>
+      <c r="H60" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I60" s="27" t="s">
+      <c r="I60" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="P60" s="24"/>
-    </row>
-    <row r="61" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="23"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="P61" s="24"/>
-    </row>
-    <row r="62" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="18" t="s">
+      <c r="P60" s="23"/>
+    </row>
+    <row r="61" spans="1:16" ht="20" customHeight="1">
+      <c r="B61" s="22"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="P61" s="23"/>
+    </row>
+    <row r="62" spans="1:16" ht="20" customHeight="1">
+      <c r="A62" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="17">
         <v>7</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="17">
         <v>3.5</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G62" s="17">
         <v>10</v>
       </c>
-      <c r="I62" s="18" t="s">
+      <c r="I62" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="P62" s="24"/>
-    </row>
-    <row r="63" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="23"/>
-      <c r="E63" s="27">
+      <c r="P62" s="23"/>
+    </row>
+    <row r="63" spans="1:16" ht="20" customHeight="1">
+      <c r="B63" s="22"/>
+      <c r="E63" s="26">
         <v>7</v>
       </c>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27" t="s">
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="I63" s="27" t="s">
+      <c r="I63" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="P63" s="24"/>
-    </row>
-    <row r="64" spans="1:16" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="23"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="I64" s="18" t="s">
+      <c r="P63" s="23"/>
+    </row>
+    <row r="64" spans="1:16" ht="43" customHeight="1">
+      <c r="B64" s="22"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="I64" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J64" s="27"/>
-      <c r="P64" s="24"/>
-    </row>
-    <row r="65" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="23"/>
-      <c r="E65" s="27">
+      <c r="J64" s="26"/>
+      <c r="P64" s="23"/>
+    </row>
+    <row r="65" spans="2:16" ht="20" customHeight="1">
+      <c r="B65" s="22"/>
+      <c r="E65" s="26">
         <v>10</v>
       </c>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27" t="s">
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="I65" s="27" t="s">
+      <c r="I65" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="P65" s="24"/>
-    </row>
-    <row r="66" spans="2:16" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="23"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="I66" s="18" t="s">
+      <c r="P65" s="23"/>
+    </row>
+    <row r="66" spans="2:16" ht="40" customHeight="1">
+      <c r="B66" s="22"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="I66" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J66" s="27"/>
-      <c r="P66" s="24"/>
-    </row>
-    <row r="67" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="23"/>
-      <c r="E67" s="18">
+      <c r="J66" s="26"/>
+      <c r="P66" s="23"/>
+    </row>
+    <row r="67" spans="2:16" ht="20" customHeight="1">
+      <c r="B67" s="22"/>
+      <c r="E67" s="17">
         <v>20.3</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="17">
         <v>19.399999999999999</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G67" s="17">
         <v>21.3</v>
       </c>
-      <c r="H67" s="18" t="s">
+      <c r="H67" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I67" s="18" t="s">
+      <c r="I67" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="P67" s="24"/>
-    </row>
-    <row r="68" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="23"/>
-      <c r="E68" s="18">
+      <c r="P67" s="23"/>
+    </row>
+    <row r="68" spans="2:16" ht="20" customHeight="1">
+      <c r="B68" s="22"/>
+      <c r="E68" s="17">
         <v>21.2</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F68" s="17">
         <v>20.2</v>
       </c>
-      <c r="G68" s="18">
+      <c r="G68" s="17">
         <v>22.3</v>
       </c>
-      <c r="H68" s="18" t="s">
+      <c r="H68" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I68" s="18" t="s">
+      <c r="I68" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="P68" s="24"/>
-    </row>
-    <row r="69" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="23"/>
-      <c r="E69" s="18">
+      <c r="P68" s="23"/>
+    </row>
+    <row r="69" spans="2:16" ht="20" customHeight="1">
+      <c r="B69" s="22"/>
+      <c r="E69" s="17">
         <v>17.5</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="17">
         <v>15.3</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G69" s="17">
         <v>20</v>
       </c>
-      <c r="H69" s="18" t="s">
+      <c r="H69" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I69" s="18" t="s">
+      <c r="I69" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="P69" s="24"/>
-    </row>
-    <row r="70" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="23"/>
-      <c r="E70" s="18">
+      <c r="P69" s="23"/>
+    </row>
+    <row r="70" spans="2:16" ht="20" customHeight="1">
+      <c r="B70" s="22"/>
+      <c r="E70" s="17">
         <v>19.100000000000001</v>
       </c>
-      <c r="F70" s="18">
+      <c r="F70" s="17">
         <v>15.8</v>
       </c>
-      <c r="G70" s="18">
+      <c r="G70" s="17">
         <v>22.9</v>
       </c>
-      <c r="H70" s="18" t="s">
+      <c r="H70" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I70" s="18" t="s">
+      <c r="I70" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="P70" s="24"/>
-    </row>
-    <row r="71" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="23"/>
-      <c r="E71" s="18">
+      <c r="P70" s="23"/>
+    </row>
+    <row r="71" spans="2:16" ht="20" customHeight="1">
+      <c r="B71" s="22"/>
+      <c r="E71" s="17">
         <v>19.2</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F71" s="17">
         <v>17.5</v>
       </c>
-      <c r="G71" s="18">
+      <c r="G71" s="17">
         <v>21</v>
       </c>
-      <c r="H71" s="18" t="s">
+      <c r="H71" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I71" s="18" t="s">
+      <c r="I71" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="P71" s="24"/>
-    </row>
-    <row r="72" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="23"/>
-      <c r="E72" s="18">
+      <c r="P71" s="23"/>
+    </row>
+    <row r="72" spans="2:16" ht="20" customHeight="1">
+      <c r="B72" s="22"/>
+      <c r="E72" s="17">
         <v>19.2</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F72" s="17">
         <v>18</v>
       </c>
-      <c r="G72" s="18">
+      <c r="G72" s="17">
         <v>20.5</v>
       </c>
-      <c r="H72" s="18" t="s">
+      <c r="H72" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I72" s="18" t="s">
+      <c r="I72" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="P72" s="24"/>
-    </row>
-    <row r="73" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="23"/>
-      <c r="E73" s="18">
+      <c r="P72" s="23"/>
+    </row>
+    <row r="73" spans="2:16" ht="20" customHeight="1">
+      <c r="B73" s="22"/>
+      <c r="E73" s="17">
         <v>21.6</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F73" s="17">
         <v>20</v>
       </c>
-      <c r="G73" s="18">
+      <c r="G73" s="17">
         <v>23.4</v>
       </c>
-      <c r="H73" s="18" t="s">
+      <c r="H73" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I73" s="18" t="s">
+      <c r="I73" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="P73" s="24"/>
-    </row>
-    <row r="74" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="23"/>
-      <c r="E74" s="18">
+      <c r="P73" s="23"/>
+    </row>
+    <row r="74" spans="2:16" ht="20" customHeight="1">
+      <c r="B74" s="22"/>
+      <c r="E74" s="17">
         <v>22.4</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F74" s="17">
         <v>20.8</v>
       </c>
-      <c r="G74" s="18">
+      <c r="G74" s="17">
         <v>24.1</v>
       </c>
-      <c r="H74" s="18" t="s">
+      <c r="H74" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I74" s="18" t="s">
+      <c r="I74" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="P74" s="24"/>
-    </row>
-    <row r="75" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="23"/>
-      <c r="E75" s="18">
+      <c r="P74" s="23"/>
+    </row>
+    <row r="75" spans="2:16" ht="20" customHeight="1">
+      <c r="B75" s="22"/>
+      <c r="E75" s="17">
         <v>22.9</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="17">
         <v>21.2</v>
       </c>
-      <c r="G75" s="18">
+      <c r="G75" s="17">
         <v>24.7</v>
       </c>
-      <c r="H75" s="18" t="s">
+      <c r="H75" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I75" s="18" t="s">
+      <c r="I75" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="P75" s="24"/>
-    </row>
-    <row r="76" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="23"/>
-      <c r="E76" s="18">
+      <c r="P75" s="23"/>
+    </row>
+    <row r="76" spans="2:16" ht="20" customHeight="1">
+      <c r="B76" s="22"/>
+      <c r="E76" s="17">
         <v>22.5</v>
       </c>
-      <c r="F76" s="18">
+      <c r="F76" s="17">
         <v>19.100000000000001</v>
       </c>
-      <c r="G76" s="18">
+      <c r="G76" s="17">
         <v>26.3</v>
       </c>
-      <c r="H76" s="18" t="s">
+      <c r="H76" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I76" s="18" t="s">
+      <c r="I76" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="P76" s="24"/>
-    </row>
-    <row r="77" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="23"/>
-      <c r="E77" s="18">
+      <c r="P76" s="23"/>
+    </row>
+    <row r="77" spans="2:16" ht="20" customHeight="1">
+      <c r="B77" s="22"/>
+      <c r="E77" s="17">
         <v>20.100000000000001</v>
       </c>
-      <c r="F77" s="18">
+      <c r="F77" s="17">
         <v>19</v>
       </c>
-      <c r="G77" s="18">
+      <c r="G77" s="17">
         <v>21.3</v>
       </c>
-      <c r="H77" s="18" t="s">
+      <c r="H77" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I77" s="18" t="s">
+      <c r="I77" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="P77" s="24"/>
-    </row>
-    <row r="78" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="23"/>
-      <c r="E78" s="18">
+      <c r="P77" s="23"/>
+    </row>
+    <row r="78" spans="2:16" ht="20" customHeight="1">
+      <c r="B78" s="22"/>
+      <c r="E78" s="17">
         <v>20.3</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="17">
         <v>19.5</v>
       </c>
-      <c r="G78" s="18">
+      <c r="G78" s="17">
         <v>21.1</v>
       </c>
-      <c r="H78" s="18" t="s">
+      <c r="H78" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I78" s="18" t="s">
+      <c r="I78" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="P78" s="24"/>
-    </row>
-    <row r="79" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="23"/>
-      <c r="E79" s="18">
+      <c r="P78" s="23"/>
+    </row>
+    <row r="79" spans="2:16" ht="20" customHeight="1">
+      <c r="B79" s="22"/>
+      <c r="E79" s="17">
         <v>28.3</v>
       </c>
-      <c r="F79" s="18">
+      <c r="F79" s="17">
         <v>25.3</v>
       </c>
-      <c r="G79" s="18">
+      <c r="G79" s="17">
         <v>31.6</v>
       </c>
-      <c r="H79" s="18" t="s">
+      <c r="H79" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I79" s="18" t="s">
+      <c r="I79" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="P79" s="24"/>
-    </row>
-    <row r="80" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="23"/>
-      <c r="E80" s="18">
+      <c r="P79" s="23"/>
+    </row>
+    <row r="80" spans="2:16" ht="20" customHeight="1">
+      <c r="B80" s="22"/>
+      <c r="E80" s="17">
         <v>19.3</v>
       </c>
-      <c r="F80" s="18">
+      <c r="F80" s="17">
         <v>17.899999999999999</v>
       </c>
-      <c r="G80" s="18">
+      <c r="G80" s="17">
         <v>20.9</v>
       </c>
-      <c r="H80" s="18" t="s">
+      <c r="H80" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I80" s="18" t="s">
+      <c r="I80" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="P80" s="24"/>
-    </row>
-    <row r="81" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="23"/>
-      <c r="E81" s="18">
+      <c r="P80" s="23"/>
+    </row>
+    <row r="81" spans="1:16" ht="20" customHeight="1">
+      <c r="B81" s="22"/>
+      <c r="E81" s="17">
         <v>21.2</v>
       </c>
-      <c r="F81" s="18">
+      <c r="F81" s="17">
         <v>20.399999999999999</v>
       </c>
-      <c r="G81" s="18">
+      <c r="G81" s="17">
         <v>22</v>
       </c>
-      <c r="H81" s="18" t="s">
+      <c r="H81" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I81" s="18" t="s">
+      <c r="I81" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="P81" s="24"/>
-    </row>
-    <row r="82" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="23"/>
-      <c r="E82" s="18">
+      <c r="P81" s="23"/>
+    </row>
+    <row r="82" spans="1:16" ht="20" customHeight="1">
+      <c r="B82" s="22"/>
+      <c r="E82" s="17">
         <v>21.2</v>
       </c>
-      <c r="F82" s="18">
+      <c r="F82" s="17">
         <v>18</v>
       </c>
-      <c r="G82" s="18">
+      <c r="G82" s="17">
         <v>24.9</v>
       </c>
-      <c r="H82" s="18" t="s">
+      <c r="H82" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I82" s="18" t="s">
+      <c r="I82" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="P82" s="24"/>
-    </row>
-    <row r="83" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="23"/>
-      <c r="P83" s="24"/>
-    </row>
-    <row r="84" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="25" t="s">
+      <c r="P82" s="23"/>
+    </row>
+    <row r="83" spans="1:16" ht="20" customHeight="1">
+      <c r="B83" s="22"/>
+      <c r="P83" s="23"/>
+    </row>
+    <row r="84" spans="1:16" ht="20" customHeight="1">
+      <c r="B84" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="P84" s="24"/>
-    </row>
-    <row r="85" spans="1:16" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="18" t="s">
+      <c r="P84" s="23"/>
+    </row>
+    <row r="85" spans="1:16" ht="77" customHeight="1">
+      <c r="A85" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B85" s="23" t="s">
+      <c r="B85" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="C85" s="37" t="s">
+      <c r="C85" s="36" t="s">
         <v>300</v>
       </c>
-      <c r="E85" s="18">
+      <c r="E85" s="17">
         <v>0.2</v>
       </c>
-      <c r="H85" s="18" t="s">
+      <c r="H85" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="I85" s="18" t="s">
+      <c r="I85" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="P85" s="24"/>
-    </row>
-    <row r="86" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="23"/>
-      <c r="P86" s="24"/>
-    </row>
-    <row r="87" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="25" t="s">
+      <c r="P85" s="23"/>
+    </row>
+    <row r="86" spans="1:16" ht="20" customHeight="1">
+      <c r="B86" s="22"/>
+      <c r="P86" s="23"/>
+    </row>
+    <row r="87" spans="1:16" ht="20" customHeight="1">
+      <c r="B87" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="47"/>
-      <c r="D87" s="47"/>
-      <c r="P87" s="24"/>
-    </row>
-    <row r="88" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="18" t="s">
+      <c r="C87" s="46"/>
+      <c r="D87" s="46"/>
+      <c r="P87" s="23"/>
+    </row>
+    <row r="88" spans="1:16" ht="39" customHeight="1">
+      <c r="A88" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B88" s="23" t="s">
+      <c r="B88" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E88" s="18">
+      <c r="E88" s="17">
         <v>3.5</v>
       </c>
-      <c r="F88" s="18">
-        <v>0</v>
-      </c>
-      <c r="G88" s="18">
+      <c r="F88" s="17">
+        <v>0</v>
+      </c>
+      <c r="G88" s="17">
         <v>14</v>
       </c>
-      <c r="I88" s="18" t="s">
+      <c r="I88" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="P88" s="24"/>
-    </row>
-    <row r="89" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="23"/>
-      <c r="P89" s="24"/>
-    </row>
-    <row r="90" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="18" t="s">
+      <c r="P88" s="23"/>
+    </row>
+    <row r="89" spans="1:16" ht="20" customHeight="1">
+      <c r="B89" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="P89" s="23"/>
+    </row>
+    <row r="90" spans="1:16" ht="20" customHeight="1">
+      <c r="A90" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B90" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="18">
+      <c r="E90" s="17">
         <v>3.5</v>
       </c>
-      <c r="F90" s="18">
-        <v>0</v>
-      </c>
-      <c r="G90" s="18">
+      <c r="F90" s="17">
+        <v>0</v>
+      </c>
+      <c r="G90" s="17">
         <v>14</v>
       </c>
-      <c r="I90" s="18" t="s">
+      <c r="I90" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="P90" s="24"/>
-    </row>
-    <row r="91" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="23"/>
-      <c r="P91" s="24"/>
-    </row>
-    <row r="92" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="18" t="s">
+      <c r="P90" s="23"/>
+    </row>
+    <row r="91" spans="1:16" ht="20" customHeight="1">
+      <c r="B91" s="22"/>
+      <c r="P91" s="23"/>
+    </row>
+    <row r="92" spans="1:16" ht="20" customHeight="1">
+      <c r="A92" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="P92" s="24"/>
-    </row>
-    <row r="93" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="37" t="s">
+      <c r="P92" s="23"/>
+    </row>
+    <row r="93" spans="1:16" ht="33" customHeight="1">
+      <c r="A93" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="B93" s="23"/>
-      <c r="H93" s="18" t="s">
+      <c r="B93" s="22"/>
+      <c r="H93" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="I93" s="18" t="s">
+      <c r="I93" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="J93" s="18" t="s">
+      <c r="J93" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="K93" s="18" t="s">
+      <c r="K93" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="L93" s="18" t="s">
+      <c r="L93" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="M93" s="17" t="s">
+      <c r="M93" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="N93" s="17" t="s">
+      <c r="N93" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="O93" s="17" t="s">
+      <c r="O93" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="P93" s="24"/>
-    </row>
-    <row r="94" spans="1:16" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="38"/>
-      <c r="D94" s="37" t="s">
+      <c r="P93" s="23"/>
+    </row>
+    <row r="94" spans="1:16" s="36" customFormat="1" ht="20" customHeight="1">
+      <c r="B94" s="37"/>
+      <c r="D94" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E94" s="28">
+      <c r="E94" s="27">
         <f t="shared" ref="E94:E100" si="0">L94/J94</f>
         <v>4.1300813008130079E-2</v>
       </c>
-      <c r="F94" s="18" t="s">
+      <c r="F94" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="J94" s="37">
+      <c r="J94" s="36">
         <v>123</v>
       </c>
-      <c r="K94" s="40">
+      <c r="K94" s="39">
         <v>0.01</v>
       </c>
-      <c r="L94" s="41">
+      <c r="L94" s="40">
         <f t="shared" ref="L94:L100" si="1">K94*$K$101</f>
         <v>5.08</v>
       </c>
-      <c r="M94" s="18" t="s">
+      <c r="M94" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="N94" s="18">
-        <v>0</v>
-      </c>
-      <c r="O94" s="37">
-        <v>0</v>
-      </c>
-      <c r="P94" s="26"/>
-    </row>
-    <row r="95" spans="1:16" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="38"/>
-      <c r="D95" s="37" t="s">
+      <c r="N94" s="17">
+        <v>0</v>
+      </c>
+      <c r="O94" s="36">
+        <v>0</v>
+      </c>
+      <c r="P94" s="25"/>
+    </row>
+    <row r="95" spans="1:16" s="36" customFormat="1" ht="20" customHeight="1">
+      <c r="B95" s="37"/>
+      <c r="D95" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="E95" s="28">
+      <c r="E95" s="27">
         <f t="shared" si="0"/>
         <v>0.14411347517730497</v>
       </c>
-      <c r="F95" s="18" t="s">
+      <c r="F95" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="J95" s="37">
+      <c r="J95" s="36">
         <v>705</v>
       </c>
-      <c r="K95" s="40">
+      <c r="K95" s="39">
         <v>0.2</v>
       </c>
-      <c r="L95" s="41">
+      <c r="L95" s="40">
         <f t="shared" si="1"/>
         <v>101.60000000000001</v>
       </c>
-      <c r="M95" s="18" t="s">
+      <c r="M95" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="N95" s="18" t="s">
+      <c r="N95" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="O95" s="37" t="s">
+      <c r="O95" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="P95" s="26"/>
-    </row>
-    <row r="96" spans="1:16" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="38"/>
-      <c r="D96" s="37" t="s">
+      <c r="P95" s="25"/>
+    </row>
+    <row r="96" spans="1:16" s="36" customFormat="1" ht="20" customHeight="1">
+      <c r="B96" s="37"/>
+      <c r="D96" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E96" s="28">
+      <c r="E96" s="27">
         <f t="shared" si="0"/>
         <v>0.21314685314685314</v>
       </c>
-      <c r="F96" s="18" t="s">
+      <c r="F96" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="J96" s="37">
+      <c r="J96" s="36">
         <v>429</v>
       </c>
-      <c r="K96" s="40">
+      <c r="K96" s="39">
         <v>0.18</v>
       </c>
-      <c r="L96" s="41">
+      <c r="L96" s="40">
         <f t="shared" si="1"/>
         <v>91.44</v>
       </c>
-      <c r="M96" s="18" t="s">
+      <c r="M96" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="N96" s="18" t="s">
+      <c r="N96" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="O96" s="37" t="s">
+      <c r="O96" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="P96" s="26"/>
-    </row>
-    <row r="97" spans="1:16" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="38"/>
-      <c r="D97" s="37" t="s">
+      <c r="P96" s="25"/>
+    </row>
+    <row r="97" spans="1:16" s="36" customFormat="1" ht="20" customHeight="1">
+      <c r="B97" s="37"/>
+      <c r="D97" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E97" s="28">
+      <c r="E97" s="27">
         <f t="shared" si="0"/>
         <v>0.20130536130536131</v>
       </c>
-      <c r="F97" s="18" t="s">
+      <c r="F97" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J97" s="37">
+      <c r="J97" s="36">
         <v>429</v>
       </c>
-      <c r="K97" s="40">
+      <c r="K97" s="39">
         <v>0.17</v>
       </c>
-      <c r="L97" s="41">
+      <c r="L97" s="40">
         <f t="shared" si="1"/>
         <v>86.36</v>
       </c>
-      <c r="M97" s="18" t="s">
+      <c r="M97" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N97" s="18" t="s">
+      <c r="N97" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="O97" s="37" t="s">
+      <c r="O97" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="P97" s="26"/>
-    </row>
-    <row r="98" spans="1:16" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="38"/>
-      <c r="D98" s="37" t="s">
+      <c r="P97" s="25"/>
+    </row>
+    <row r="98" spans="1:16" s="36" customFormat="1" ht="20" customHeight="1">
+      <c r="B98" s="37"/>
+      <c r="D98" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="E98" s="28">
+      <c r="E98" s="27">
         <f t="shared" si="0"/>
         <v>0.22356968215158923</v>
       </c>
-      <c r="F98" s="18" t="s">
+      <c r="F98" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="J98" s="37">
+      <c r="J98" s="36">
         <v>409</v>
       </c>
-      <c r="K98" s="40">
+      <c r="K98" s="39">
         <f>36%/2</f>
         <v>0.18</v>
       </c>
-      <c r="L98" s="41">
+      <c r="L98" s="40">
         <f t="shared" si="1"/>
         <v>91.44</v>
       </c>
-      <c r="M98" s="18" t="s">
+      <c r="M98" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N98" s="18" t="s">
+      <c r="N98" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="O98" s="37" t="s">
+      <c r="O98" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="P98" s="26"/>
-    </row>
-    <row r="99" spans="1:16" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="38"/>
-      <c r="D99" s="37" t="s">
+      <c r="P98" s="25"/>
+    </row>
+    <row r="99" spans="1:16" s="36" customFormat="1" ht="20" customHeight="1">
+      <c r="B99" s="37"/>
+      <c r="D99" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E99" s="28">
+      <c r="E99" s="27">
         <f t="shared" si="0"/>
         <v>0.43542857142857144</v>
       </c>
-      <c r="F99" s="18" t="s">
+      <c r="F99" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="J99" s="37">
+      <c r="J99" s="36">
         <v>210</v>
       </c>
-      <c r="K99" s="40">
+      <c r="K99" s="39">
         <f>36%/2</f>
         <v>0.18</v>
       </c>
-      <c r="L99" s="41">
+      <c r="L99" s="40">
         <f t="shared" si="1"/>
         <v>91.44</v>
       </c>
-      <c r="M99" s="18" t="s">
+      <c r="M99" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="N99" s="18" t="s">
+      <c r="N99" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="O99" s="37" t="s">
+      <c r="O99" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="P99" s="26"/>
-    </row>
-    <row r="100" spans="1:16" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="38"/>
-      <c r="D100" s="37" t="s">
+      <c r="P99" s="25"/>
+    </row>
+    <row r="100" spans="1:16" s="36" customFormat="1" ht="20" customHeight="1">
+      <c r="B100" s="37"/>
+      <c r="D100" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E100" s="28">
+      <c r="E100" s="27">
         <f t="shared" si="0"/>
         <v>0.3175</v>
       </c>
-      <c r="F100" s="18" t="s">
+      <c r="F100" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="J100" s="37">
+      <c r="J100" s="36">
         <v>144</v>
       </c>
-      <c r="K100" s="40">
+      <c r="K100" s="39">
         <v>0.09</v>
       </c>
-      <c r="L100" s="41">
+      <c r="L100" s="40">
         <f t="shared" si="1"/>
         <v>45.72</v>
       </c>
-      <c r="M100" s="18" t="s">
+      <c r="M100" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="N100" s="18" t="s">
+      <c r="N100" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="O100" s="37" t="s">
+      <c r="O100" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="P100" s="26"/>
-    </row>
-    <row r="101" spans="1:16" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="38"/>
-      <c r="D101" s="42" t="s">
+      <c r="P100" s="25"/>
+    </row>
+    <row r="101" spans="1:16" s="36" customFormat="1" ht="20" customHeight="1">
+      <c r="B101" s="37"/>
+      <c r="D101" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="E101" s="28">
+      <c r="E101" s="27">
         <v>0.12</v>
       </c>
-      <c r="F101" s="47" t="s">
+      <c r="F101" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="J101" s="55">
+      <c r="J101" s="54">
         <v>2449</v>
       </c>
-      <c r="K101" s="43">
+      <c r="K101" s="42">
         <v>508</v>
       </c>
-      <c r="L101" s="41"/>
-      <c r="M101" s="17" t="s">
+      <c r="L101" s="40"/>
+      <c r="M101" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="N101" s="17" t="s">
+      <c r="N101" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="O101" s="42" t="s">
+      <c r="O101" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="P101" s="26"/>
-    </row>
-    <row r="102" spans="1:16" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="38"/>
-      <c r="D102" s="42"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="47"/>
-      <c r="J102" s="55"/>
-      <c r="K102" s="43"/>
-      <c r="L102" s="41"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="42"/>
-      <c r="P102" s="26"/>
-    </row>
-    <row r="103" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="25" t="s">
+      <c r="P101" s="25"/>
+    </row>
+    <row r="102" spans="1:16" s="36" customFormat="1" ht="20" customHeight="1">
+      <c r="B102" s="37"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="46"/>
+      <c r="J102" s="54"/>
+      <c r="K102" s="42"/>
+      <c r="L102" s="40"/>
+      <c r="M102" s="16"/>
+      <c r="N102" s="16"/>
+      <c r="O102" s="41"/>
+      <c r="P102" s="25"/>
+    </row>
+    <row r="103" spans="1:16" ht="20" customHeight="1">
+      <c r="B103" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="47"/>
-      <c r="D103" s="47"/>
-      <c r="E103" s="47"/>
-      <c r="F103" s="47"/>
-      <c r="G103" s="47"/>
-      <c r="H103" s="47"/>
-      <c r="I103" s="47"/>
-      <c r="P103" s="24"/>
-    </row>
-    <row r="104" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="18" t="s">
+      <c r="C103" s="46"/>
+      <c r="D103" s="46"/>
+      <c r="E103" s="46"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="46"/>
+      <c r="P103" s="23"/>
+    </row>
+    <row r="104" spans="1:16" ht="20" customHeight="1">
+      <c r="A104" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B104" s="23" t="s">
+      <c r="B104" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H104" s="18" t="s">
+      <c r="H104" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="I104" s="18" t="s">
+      <c r="I104" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="K104" s="17"/>
-      <c r="L104" s="62" t="s">
+      <c r="K104" s="16"/>
+      <c r="L104" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="M104" s="62"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="62" t="s">
+      <c r="M104" s="92"/>
+      <c r="N104" s="16"/>
+      <c r="O104" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="P104" s="63"/>
-    </row>
-    <row r="105" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="37" t="s">
+      <c r="P104" s="93"/>
+    </row>
+    <row r="105" spans="1:16" ht="42" customHeight="1">
+      <c r="A105" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="B105" s="23"/>
-      <c r="C105" s="18" t="s">
+      <c r="B105" s="22"/>
+      <c r="C105" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D105" s="18" t="s">
+      <c r="D105" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E105" s="18" t="s">
+      <c r="E105" s="17" t="s">
         <v>94</v>
       </c>
       <c r="F105" s="1"/>
-      <c r="J105" s="47" t="s">
+      <c r="J105" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="K105" s="17" t="s">
+      <c r="K105" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="L105" s="17" t="s">
+      <c r="L105" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="M105" s="17" t="s">
+      <c r="M105" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="N105" s="17" t="s">
+      <c r="N105" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="O105" s="17" t="s">
+      <c r="O105" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="P105" s="44" t="s">
+      <c r="P105" s="43" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="23"/>
-      <c r="C106" s="18">
-        <v>0</v>
-      </c>
-      <c r="D106" s="18">
+    <row r="106" spans="1:16" ht="20" customHeight="1">
+      <c r="B106" s="22"/>
+      <c r="C106" s="17">
+        <v>0</v>
+      </c>
+      <c r="D106" s="17">
         <v>9</v>
       </c>
-      <c r="E106" s="18">
+      <c r="E106" s="17">
         <v>2</v>
       </c>
       <c r="F106" s="1"/>
-      <c r="J106" s="18">
-        <v>0</v>
-      </c>
-      <c r="K106" s="18">
+      <c r="J106" s="17">
+        <v>0</v>
+      </c>
+      <c r="K106" s="17">
         <v>9</v>
       </c>
-      <c r="L106" s="18">
-        <v>0</v>
-      </c>
-      <c r="M106" s="18">
-        <v>0</v>
-      </c>
-      <c r="N106" s="18">
+      <c r="L106" s="17">
+        <v>0</v>
+      </c>
+      <c r="M106" s="17">
+        <v>0</v>
+      </c>
+      <c r="N106" s="17">
         <v>2</v>
       </c>
-      <c r="O106" s="18">
+      <c r="O106" s="17">
         <v>13</v>
       </c>
-      <c r="P106" s="24">
+      <c r="P106" s="23">
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="23"/>
-      <c r="C107" s="18">
+    <row r="107" spans="1:16" ht="20" customHeight="1">
+      <c r="B107" s="22"/>
+      <c r="C107" s="17">
         <v>10</v>
       </c>
-      <c r="D107" s="18">
+      <c r="D107" s="17">
         <v>19</v>
       </c>
-      <c r="E107" s="18">
+      <c r="E107" s="17">
         <v>1.8</v>
       </c>
       <c r="F107" s="1"/>
-      <c r="J107" s="18">
+      <c r="J107" s="17">
         <v>10</v>
       </c>
-      <c r="K107" s="18">
+      <c r="K107" s="17">
         <v>19</v>
       </c>
-      <c r="L107" s="18">
-        <v>0</v>
-      </c>
-      <c r="M107" s="18">
-        <v>0</v>
-      </c>
-      <c r="N107" s="18">
+      <c r="L107" s="17">
+        <v>0</v>
+      </c>
+      <c r="M107" s="17">
+        <v>0</v>
+      </c>
+      <c r="N107" s="17">
         <v>1.8</v>
       </c>
-      <c r="O107" s="18">
+      <c r="O107" s="17">
         <v>1</v>
       </c>
-      <c r="P107" s="24">
+      <c r="P107" s="23">
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="23"/>
-      <c r="C108" s="18">
+    <row r="108" spans="1:16" ht="20" customHeight="1">
+      <c r="B108" s="22"/>
+      <c r="C108" s="17">
         <v>20</v>
       </c>
-      <c r="D108" s="18">
+      <c r="D108" s="17">
         <v>29</v>
       </c>
-      <c r="E108" s="18">
+      <c r="E108" s="17">
         <v>2.5</v>
       </c>
       <c r="F108" s="1"/>
-      <c r="J108" s="18">
+      <c r="J108" s="17">
         <v>20</v>
       </c>
-      <c r="K108" s="18">
+      <c r="K108" s="17">
         <v>29</v>
       </c>
-      <c r="L108" s="18">
+      <c r="L108" s="17">
         <v>3</v>
       </c>
-      <c r="M108" s="18">
+      <c r="M108" s="17">
         <v>1</v>
       </c>
-      <c r="N108" s="18">
+      <c r="N108" s="17">
         <v>2.5</v>
       </c>
-      <c r="O108" s="18">
+      <c r="O108" s="17">
         <v>42</v>
       </c>
-      <c r="P108" s="24">
+      <c r="P108" s="23">
         <v>55</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="23"/>
-      <c r="C109" s="18">
+    <row r="109" spans="1:16" ht="20" customHeight="1">
+      <c r="B109" s="22"/>
+      <c r="C109" s="17">
         <v>30</v>
       </c>
-      <c r="D109" s="18">
+      <c r="D109" s="17">
         <v>39</v>
       </c>
-      <c r="E109" s="18">
+      <c r="E109" s="17">
         <v>3.7</v>
       </c>
       <c r="F109" s="1"/>
-      <c r="J109" s="18">
+      <c r="J109" s="17">
         <v>30</v>
       </c>
-      <c r="K109" s="18">
+      <c r="K109" s="17">
         <v>39</v>
       </c>
-      <c r="L109" s="18">
+      <c r="L109" s="17">
         <v>6</v>
       </c>
-      <c r="M109" s="18">
+      <c r="M109" s="17">
         <v>2</v>
       </c>
-      <c r="N109" s="18">
+      <c r="N109" s="17">
         <v>3.7</v>
       </c>
-      <c r="O109" s="18">
+      <c r="O109" s="17">
         <v>130</v>
       </c>
-      <c r="P109" s="24">
+      <c r="P109" s="23">
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="23"/>
-      <c r="C110" s="18">
+    <row r="110" spans="1:16" ht="20" customHeight="1">
+      <c r="B110" s="22"/>
+      <c r="C110" s="17">
         <v>40</v>
       </c>
-      <c r="D110" s="18">
+      <c r="D110" s="17">
         <v>49</v>
       </c>
-      <c r="E110" s="18">
+      <c r="E110" s="17">
         <v>3.9</v>
       </c>
       <c r="F110" s="1"/>
-      <c r="J110" s="18">
+      <c r="J110" s="17">
         <v>40</v>
       </c>
-      <c r="K110" s="18">
+      <c r="K110" s="17">
         <v>49</v>
       </c>
-      <c r="L110" s="18">
+      <c r="L110" s="17">
         <v>19</v>
       </c>
-      <c r="M110" s="18">
+      <c r="M110" s="17">
         <v>3</v>
       </c>
-      <c r="N110" s="18">
+      <c r="N110" s="17">
         <v>3.9</v>
       </c>
-      <c r="O110" s="18">
+      <c r="O110" s="17">
         <v>233</v>
       </c>
-      <c r="P110" s="24">
+      <c r="P110" s="23">
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="23"/>
-      <c r="C111" s="18">
+    <row r="111" spans="1:16" ht="20" customHeight="1">
+      <c r="B111" s="22"/>
+      <c r="C111" s="17">
         <v>50</v>
       </c>
-      <c r="D111" s="18">
+      <c r="D111" s="17">
         <v>59</v>
       </c>
-      <c r="E111" s="18">
+      <c r="E111" s="17">
         <v>3.8</v>
       </c>
       <c r="F111" s="1"/>
-      <c r="J111" s="18">
+      <c r="J111" s="17">
         <v>50</v>
       </c>
-      <c r="K111" s="18">
+      <c r="K111" s="17">
         <v>59</v>
       </c>
-      <c r="L111" s="18">
+      <c r="L111" s="17">
         <v>40</v>
       </c>
-      <c r="M111" s="18">
+      <c r="M111" s="17">
         <v>13</v>
       </c>
-      <c r="N111" s="18">
+      <c r="N111" s="17">
         <v>3.8</v>
       </c>
-      <c r="O111" s="18">
+      <c r="O111" s="17">
         <v>327</v>
       </c>
-      <c r="P111" s="24">
+      <c r="P111" s="23">
         <v>188</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="23"/>
-      <c r="C112" s="18">
+    <row r="112" spans="1:16" ht="20" customHeight="1">
+      <c r="B112" s="22"/>
+      <c r="C112" s="17">
         <v>60</v>
       </c>
-      <c r="D112" s="18">
+      <c r="D112" s="17">
         <v>69</v>
       </c>
-      <c r="E112" s="18">
+      <c r="E112" s="17">
         <v>4.3</v>
       </c>
       <c r="F112" s="1"/>
-      <c r="J112" s="18">
+      <c r="J112" s="17">
         <v>60</v>
       </c>
-      <c r="K112" s="18">
+      <c r="K112" s="17">
         <v>69</v>
       </c>
-      <c r="L112" s="18">
+      <c r="L112" s="17">
         <v>56</v>
       </c>
-      <c r="M112" s="18">
+      <c r="M112" s="17">
         <v>28</v>
       </c>
-      <c r="N112" s="18">
+      <c r="N112" s="17">
         <v>4.3</v>
       </c>
-      <c r="O112" s="18">
+      <c r="O112" s="17">
         <v>300</v>
       </c>
-      <c r="P112" s="24">
+      <c r="P112" s="23">
         <v>233</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="23"/>
-      <c r="C113" s="18">
+    <row r="113" spans="1:16" ht="20" customHeight="1">
+      <c r="B113" s="22"/>
+      <c r="C113" s="17">
         <v>70</v>
       </c>
-      <c r="D113" s="18">
+      <c r="D113" s="17">
         <v>79</v>
       </c>
-      <c r="E113" s="18">
+      <c r="E113" s="17">
         <v>4.5999999999999996</v>
       </c>
       <c r="F113" s="1"/>
-      <c r="J113" s="18">
+      <c r="J113" s="17">
         <v>70</v>
       </c>
-      <c r="K113" s="18">
+      <c r="K113" s="17">
         <v>79</v>
       </c>
-      <c r="L113" s="18">
+      <c r="L113" s="17">
         <v>91</v>
       </c>
-      <c r="M113" s="18">
+      <c r="M113" s="17">
         <v>54</v>
       </c>
-      <c r="N113" s="18">
+      <c r="N113" s="17">
         <v>4.5999999999999996</v>
       </c>
-      <c r="O113" s="18">
+      <c r="O113" s="17">
         <v>254</v>
       </c>
-      <c r="P113" s="24">
+      <c r="P113" s="23">
         <v>197</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="23"/>
-      <c r="C114" s="18">
+    <row r="114" spans="1:16" ht="20" customHeight="1">
+      <c r="B114" s="22"/>
+      <c r="C114" s="17">
         <v>80</v>
       </c>
-      <c r="D114" s="18">
+      <c r="D114" s="17">
         <v>89</v>
       </c>
-      <c r="E114" s="18">
+      <c r="E114" s="17">
         <v>4.4000000000000004</v>
       </c>
       <c r="F114" s="1"/>
-      <c r="J114" s="18">
+      <c r="J114" s="17">
         <v>80</v>
       </c>
-      <c r="K114" s="18">
+      <c r="K114" s="17">
         <v>89</v>
       </c>
-      <c r="L114" s="18">
+      <c r="L114" s="17">
         <v>94</v>
       </c>
-      <c r="M114" s="18">
+      <c r="M114" s="17">
         <v>76</v>
       </c>
-      <c r="N114" s="18">
+      <c r="N114" s="17">
         <v>4.4000000000000004</v>
       </c>
-      <c r="O114" s="18">
+      <c r="O114" s="17">
         <v>155</v>
       </c>
-      <c r="P114" s="24">
+      <c r="P114" s="23">
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="23"/>
-      <c r="C115" s="18">
+    <row r="115" spans="1:16" ht="20" customHeight="1">
+      <c r="B115" s="22"/>
+      <c r="C115" s="17">
         <v>90</v>
       </c>
-      <c r="D115" s="18">
+      <c r="D115" s="17">
         <v>100</v>
       </c>
-      <c r="E115" s="18">
+      <c r="E115" s="17">
         <v>4.8</v>
       </c>
-      <c r="J115" s="18">
+      <c r="J115" s="17">
         <v>90</v>
       </c>
-      <c r="K115" s="18">
+      <c r="K115" s="17">
         <v>100</v>
       </c>
-      <c r="L115" s="18">
+      <c r="L115" s="17">
         <v>28</v>
       </c>
-      <c r="M115" s="18">
+      <c r="M115" s="17">
         <v>39</v>
       </c>
-      <c r="N115" s="18">
+      <c r="N115" s="17">
         <v>4.8</v>
       </c>
-      <c r="O115" s="18">
+      <c r="O115" s="17">
         <v>44</v>
       </c>
-      <c r="P115" s="24">
+      <c r="P115" s="23">
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="23"/>
-      <c r="C116" s="18" t="s">
+    <row r="116" spans="1:16" ht="20" customHeight="1">
+      <c r="B116" s="22"/>
+      <c r="C116" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E116" s="18">
+      <c r="E116" s="17">
         <v>3.9</v>
       </c>
-      <c r="F116" s="18">
+      <c r="F116" s="17">
         <v>2.4</v>
       </c>
-      <c r="G116" s="18">
+      <c r="G116" s="17">
         <v>6.7</v>
       </c>
-      <c r="P116" s="24"/>
-    </row>
-    <row r="117" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="23"/>
-      <c r="P117" s="24"/>
-    </row>
-    <row r="118" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="18" t="s">
+      <c r="P116" s="23"/>
+    </row>
+    <row r="117" spans="1:16" ht="20" customHeight="1">
+      <c r="B117" s="22"/>
+      <c r="P117" s="23"/>
+    </row>
+    <row r="118" spans="1:16" ht="20" customHeight="1">
+      <c r="A118" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B118" s="23" t="s">
+      <c r="B118" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="C118" s="18" t="s">
+      <c r="C118" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H118" s="18" t="s">
+      <c r="H118" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="I118" s="18" t="s">
+      <c r="I118" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="P118" s="24"/>
-    </row>
-    <row r="119" spans="1:16" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="37" t="s">
+      <c r="P118" s="23"/>
+    </row>
+    <row r="119" spans="1:16" ht="38" customHeight="1">
+      <c r="A119" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="B119" s="23"/>
-      <c r="C119" s="18" t="s">
+      <c r="B119" s="22"/>
+      <c r="C119" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D119" s="18" t="s">
+      <c r="D119" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E119" s="47" t="str">
+      <c r="E119" s="46" t="str">
         <f>L120</f>
         <v>Male</v>
       </c>
-      <c r="L119" s="62" t="s">
+      <c r="L119" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="M119" s="62"/>
-      <c r="P119" s="24"/>
-    </row>
-    <row r="120" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="23"/>
-      <c r="C120" s="18">
-        <v>0</v>
-      </c>
-      <c r="D120" s="18">
+      <c r="M119" s="92"/>
+      <c r="P119" s="23"/>
+    </row>
+    <row r="120" spans="1:16" ht="20" customHeight="1">
+      <c r="B120" s="22"/>
+      <c r="C120" s="17">
+        <v>0</v>
+      </c>
+      <c r="D120" s="17">
         <v>9</v>
       </c>
-      <c r="E120" s="29">
+      <c r="E120" s="28">
         <f t="shared" ref="E120:E128" si="2">L121</f>
         <v>1</v>
       </c>
-      <c r="J120" s="47" t="s">
+      <c r="J120" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="K120" s="17" t="s">
+      <c r="K120" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="L120" s="17" t="s">
+      <c r="L120" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="M120" s="17" t="s">
+      <c r="M120" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="P120" s="24"/>
-    </row>
-    <row r="121" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="23"/>
-      <c r="C121" s="18">
+      <c r="P120" s="23"/>
+    </row>
+    <row r="121" spans="1:16" ht="20" customHeight="1">
+      <c r="B121" s="22"/>
+      <c r="C121" s="17">
         <v>10</v>
       </c>
-      <c r="D121" s="18">
+      <c r="D121" s="17">
         <v>19</v>
       </c>
-      <c r="E121" s="29">
+      <c r="E121" s="28">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J121" s="18">
-        <v>0</v>
-      </c>
-      <c r="K121" s="18">
+      <c r="J121" s="17">
+        <v>0</v>
+      </c>
+      <c r="K121" s="17">
         <v>9</v>
       </c>
-      <c r="L121" s="29">
+      <c r="L121" s="28">
         <f>1-L106/O106</f>
         <v>1</v>
       </c>
-      <c r="M121" s="29">
+      <c r="M121" s="28">
         <f>1-M106/P106</f>
         <v>1</v>
       </c>
-      <c r="P121" s="24"/>
-    </row>
-    <row r="122" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="23"/>
-      <c r="C122" s="18">
+      <c r="P121" s="23"/>
+    </row>
+    <row r="122" spans="1:16" ht="20" customHeight="1">
+      <c r="B122" s="22"/>
+      <c r="C122" s="17">
         <v>20</v>
       </c>
-      <c r="D122" s="18">
+      <c r="D122" s="17">
         <v>29</v>
       </c>
-      <c r="E122" s="29">
+      <c r="E122" s="28">
         <f t="shared" si="2"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="J122" s="18">
+      <c r="J122" s="17">
         <v>10</v>
       </c>
-      <c r="K122" s="18">
+      <c r="K122" s="17">
         <v>19</v>
       </c>
-      <c r="L122" s="29">
+      <c r="L122" s="28">
         <f t="shared" ref="L122:M122" si="3">1-L107/O107</f>
         <v>1</v>
       </c>
-      <c r="M122" s="29">
+      <c r="M122" s="28">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P122" s="24"/>
-    </row>
-    <row r="123" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="23"/>
-      <c r="C123" s="18">
+      <c r="P122" s="23"/>
+    </row>
+    <row r="123" spans="1:16" ht="20" customHeight="1">
+      <c r="B123" s="22"/>
+      <c r="C123" s="17">
         <v>30</v>
       </c>
-      <c r="D123" s="18">
+      <c r="D123" s="17">
         <v>39</v>
       </c>
-      <c r="E123" s="29">
+      <c r="E123" s="28">
         <f t="shared" si="2"/>
         <v>0.95384615384615379</v>
       </c>
-      <c r="J123" s="18">
+      <c r="J123" s="17">
         <v>20</v>
       </c>
-      <c r="K123" s="18">
+      <c r="K123" s="17">
         <v>29</v>
       </c>
-      <c r="L123" s="29">
+      <c r="L123" s="28">
         <f t="shared" ref="L123:M123" si="4">1-L108/O108</f>
         <v>0.9285714285714286</v>
       </c>
-      <c r="M123" s="29">
+      <c r="M123" s="28">
         <f t="shared" si="4"/>
         <v>0.98181818181818181</v>
       </c>
-      <c r="P123" s="24"/>
-    </row>
-    <row r="124" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="23"/>
-      <c r="C124" s="18">
+      <c r="P123" s="23"/>
+    </row>
+    <row r="124" spans="1:16" ht="20" customHeight="1">
+      <c r="B124" s="22"/>
+      <c r="C124" s="17">
         <v>40</v>
       </c>
-      <c r="D124" s="18">
+      <c r="D124" s="17">
         <v>49</v>
       </c>
-      <c r="E124" s="29">
+      <c r="E124" s="28">
         <f t="shared" si="2"/>
         <v>0.91845493562231761</v>
       </c>
-      <c r="J124" s="18">
+      <c r="J124" s="17">
         <v>30</v>
       </c>
-      <c r="K124" s="18">
+      <c r="K124" s="17">
         <v>39</v>
       </c>
-      <c r="L124" s="29">
+      <c r="L124" s="28">
         <f t="shared" ref="L124:M124" si="5">1-L109/O109</f>
         <v>0.95384615384615379</v>
       </c>
-      <c r="M124" s="29">
+      <c r="M124" s="28">
         <f t="shared" si="5"/>
         <v>0.97530864197530864</v>
       </c>
-      <c r="P124" s="24"/>
-    </row>
-    <row r="125" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="23"/>
-      <c r="C125" s="18">
+      <c r="P124" s="23"/>
+    </row>
+    <row r="125" spans="1:16" ht="20" customHeight="1">
+      <c r="B125" s="22"/>
+      <c r="C125" s="17">
         <v>50</v>
       </c>
-      <c r="D125" s="18">
+      <c r="D125" s="17">
         <v>59</v>
       </c>
-      <c r="E125" s="29">
+      <c r="E125" s="28">
         <f t="shared" si="2"/>
         <v>0.8776758409785933</v>
       </c>
-      <c r="J125" s="18">
+      <c r="J125" s="17">
         <v>40</v>
       </c>
-      <c r="K125" s="18">
+      <c r="K125" s="17">
         <v>49</v>
       </c>
-      <c r="L125" s="29">
+      <c r="L125" s="28">
         <f t="shared" ref="L125:M125" si="6">1-L110/O110</f>
         <v>0.91845493562231761</v>
       </c>
-      <c r="M125" s="29">
+      <c r="M125" s="28">
         <f t="shared" si="6"/>
         <v>0.97478991596638653</v>
       </c>
-      <c r="P125" s="24"/>
-    </row>
-    <row r="126" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="23"/>
-      <c r="C126" s="18">
+      <c r="P125" s="23"/>
+    </row>
+    <row r="126" spans="1:16" ht="20" customHeight="1">
+      <c r="B126" s="22"/>
+      <c r="C126" s="17">
         <v>60</v>
       </c>
-      <c r="D126" s="18">
+      <c r="D126" s="17">
         <v>69</v>
       </c>
-      <c r="E126" s="29">
+      <c r="E126" s="28">
         <f t="shared" si="2"/>
         <v>0.81333333333333335</v>
       </c>
-      <c r="J126" s="18">
+      <c r="J126" s="17">
         <v>50</v>
       </c>
-      <c r="K126" s="18">
+      <c r="K126" s="17">
         <v>59</v>
       </c>
-      <c r="L126" s="29">
+      <c r="L126" s="28">
         <f t="shared" ref="L126:M126" si="7">1-L111/O111</f>
         <v>0.8776758409785933</v>
       </c>
-      <c r="M126" s="29">
+      <c r="M126" s="28">
         <f t="shared" si="7"/>
         <v>0.93085106382978722</v>
       </c>
-      <c r="P126" s="24"/>
-    </row>
-    <row r="127" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="23"/>
-      <c r="C127" s="18">
+      <c r="P126" s="23"/>
+    </row>
+    <row r="127" spans="1:16" ht="20" customHeight="1">
+      <c r="B127" s="22"/>
+      <c r="C127" s="17">
         <v>70</v>
       </c>
-      <c r="D127" s="18">
+      <c r="D127" s="17">
         <v>79</v>
       </c>
-      <c r="E127" s="29">
+      <c r="E127" s="28">
         <f t="shared" si="2"/>
         <v>0.6417322834645669</v>
       </c>
-      <c r="J127" s="18">
+      <c r="J127" s="17">
         <v>60</v>
       </c>
-      <c r="K127" s="18">
+      <c r="K127" s="17">
         <v>69</v>
       </c>
-      <c r="L127" s="29">
+      <c r="L127" s="28">
         <f t="shared" ref="L127:M127" si="8">1-L112/O112</f>
         <v>0.81333333333333335</v>
       </c>
-      <c r="M127" s="29">
+      <c r="M127" s="28">
         <f t="shared" si="8"/>
         <v>0.87982832618025753</v>
       </c>
-      <c r="P127" s="24"/>
-    </row>
-    <row r="128" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="23"/>
-      <c r="C128" s="18">
+      <c r="P127" s="23"/>
+    </row>
+    <row r="128" spans="1:16" ht="20" customHeight="1">
+      <c r="B128" s="22"/>
+      <c r="C128" s="17">
         <v>80</v>
       </c>
-      <c r="D128" s="18">
+      <c r="D128" s="17">
         <v>89</v>
       </c>
-      <c r="E128" s="29">
+      <c r="E128" s="28">
         <f t="shared" si="2"/>
         <v>0.3935483870967742</v>
       </c>
-      <c r="J128" s="18">
+      <c r="J128" s="17">
         <v>70</v>
       </c>
-      <c r="K128" s="18">
+      <c r="K128" s="17">
         <v>79</v>
       </c>
-      <c r="L128" s="29">
+      <c r="L128" s="28">
         <f t="shared" ref="L128:M128" si="9">1-L113/O113</f>
         <v>0.6417322834645669</v>
       </c>
-      <c r="M128" s="29">
+      <c r="M128" s="28">
         <f t="shared" si="9"/>
         <v>0.72588832487309651</v>
       </c>
-      <c r="P128" s="24"/>
-    </row>
-    <row r="129" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="23"/>
-      <c r="C129" s="18">
+      <c r="P128" s="23"/>
+    </row>
+    <row r="129" spans="1:16" ht="20" customHeight="1">
+      <c r="B129" s="22"/>
+      <c r="C129" s="17">
         <v>90</v>
       </c>
-      <c r="D129" s="18">
+      <c r="D129" s="17">
         <v>100</v>
       </c>
-      <c r="E129" s="29">
+      <c r="E129" s="28">
         <f>L130</f>
         <v>0.36363636363636365</v>
       </c>
-      <c r="J129" s="18">
+      <c r="J129" s="17">
         <v>80</v>
       </c>
-      <c r="K129" s="18">
+      <c r="K129" s="17">
         <v>89</v>
       </c>
-      <c r="L129" s="29">
+      <c r="L129" s="28">
         <f t="shared" ref="L129:M129" si="10">1-L114/O114</f>
         <v>0.3935483870967742</v>
       </c>
-      <c r="M129" s="29">
+      <c r="M129" s="28">
         <f t="shared" si="10"/>
         <v>0.51898734177215189</v>
       </c>
-      <c r="P129" s="24"/>
-    </row>
-    <row r="130" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="23"/>
-      <c r="E130" s="29"/>
-      <c r="J130" s="18">
+      <c r="P129" s="23"/>
+    </row>
+    <row r="130" spans="1:16" ht="20" customHeight="1">
+      <c r="B130" s="22"/>
+      <c r="E130" s="28"/>
+      <c r="J130" s="17">
         <v>90</v>
       </c>
-      <c r="K130" s="18">
+      <c r="K130" s="17">
         <v>100</v>
       </c>
-      <c r="L130" s="29">
+      <c r="L130" s="28">
         <f>1-L115/O115</f>
         <v>0.36363636363636365</v>
       </c>
-      <c r="M130" s="29">
+      <c r="M130" s="28">
         <f>1-M115/P115</f>
         <v>0.5357142857142857</v>
       </c>
-      <c r="P130" s="24"/>
-    </row>
-    <row r="131" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="23"/>
-      <c r="C131" s="18" t="s">
+      <c r="P130" s="23"/>
+    </row>
+    <row r="131" spans="1:16" ht="20" customHeight="1">
+      <c r="B131" s="22"/>
+      <c r="C131" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D131" s="18" t="s">
+      <c r="D131" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E131" s="30" t="str">
+      <c r="E131" s="29" t="str">
         <f t="shared" ref="E131:E140" si="11">M120</f>
         <v>Female</v>
       </c>
-      <c r="H131" s="18" t="s">
+      <c r="H131" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="I131" s="18" t="s">
+      <c r="I131" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="P131" s="24"/>
-    </row>
-    <row r="132" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="23"/>
-      <c r="C132" s="18">
-        <v>0</v>
-      </c>
-      <c r="D132" s="18">
+      <c r="P131" s="23"/>
+    </row>
+    <row r="132" spans="1:16" ht="20" customHeight="1">
+      <c r="B132" s="22"/>
+      <c r="C132" s="17">
+        <v>0</v>
+      </c>
+      <c r="D132" s="17">
         <v>9</v>
       </c>
-      <c r="E132" s="29">
+      <c r="E132" s="28">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="P132" s="24"/>
-    </row>
-    <row r="133" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="23"/>
-      <c r="C133" s="18">
+      <c r="P132" s="23"/>
+    </row>
+    <row r="133" spans="1:16" ht="20" customHeight="1">
+      <c r="B133" s="22"/>
+      <c r="C133" s="17">
         <v>10</v>
       </c>
-      <c r="D133" s="18">
+      <c r="D133" s="17">
         <v>19</v>
       </c>
-      <c r="E133" s="29">
+      <c r="E133" s="28">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="P133" s="24"/>
-    </row>
-    <row r="134" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="23"/>
-      <c r="C134" s="18">
+      <c r="P133" s="23"/>
+    </row>
+    <row r="134" spans="1:16" ht="20" customHeight="1">
+      <c r="B134" s="22"/>
+      <c r="C134" s="17">
         <v>20</v>
       </c>
-      <c r="D134" s="18">
+      <c r="D134" s="17">
         <v>29</v>
       </c>
-      <c r="E134" s="29">
+      <c r="E134" s="28">
         <f t="shared" si="11"/>
         <v>0.98181818181818181</v>
       </c>
-      <c r="P134" s="24"/>
-    </row>
-    <row r="135" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="23"/>
-      <c r="C135" s="18">
+      <c r="P134" s="23"/>
+    </row>
+    <row r="135" spans="1:16" ht="20" customHeight="1">
+      <c r="B135" s="22"/>
+      <c r="C135" s="17">
         <v>30</v>
       </c>
-      <c r="D135" s="18">
+      <c r="D135" s="17">
         <v>39</v>
       </c>
-      <c r="E135" s="29">
+      <c r="E135" s="28">
         <f t="shared" si="11"/>
         <v>0.97530864197530864</v>
       </c>
-      <c r="P135" s="24"/>
-    </row>
-    <row r="136" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="23"/>
-      <c r="C136" s="18">
+      <c r="P135" s="23"/>
+    </row>
+    <row r="136" spans="1:16" ht="20" customHeight="1">
+      <c r="B136" s="22"/>
+      <c r="C136" s="17">
         <v>40</v>
       </c>
-      <c r="D136" s="18">
+      <c r="D136" s="17">
         <v>49</v>
       </c>
-      <c r="E136" s="29">
+      <c r="E136" s="28">
         <f t="shared" si="11"/>
         <v>0.97478991596638653</v>
       </c>
-      <c r="P136" s="24"/>
-    </row>
-    <row r="137" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="23"/>
-      <c r="C137" s="18">
+      <c r="P136" s="23"/>
+    </row>
+    <row r="137" spans="1:16" ht="20" customHeight="1">
+      <c r="B137" s="22"/>
+      <c r="C137" s="17">
         <v>50</v>
       </c>
-      <c r="D137" s="18">
+      <c r="D137" s="17">
         <v>59</v>
       </c>
-      <c r="E137" s="29">
+      <c r="E137" s="28">
         <f t="shared" si="11"/>
         <v>0.93085106382978722</v>
       </c>
-      <c r="P137" s="24"/>
-    </row>
-    <row r="138" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="23"/>
-      <c r="C138" s="18">
+      <c r="P137" s="23"/>
+    </row>
+    <row r="138" spans="1:16" ht="20" customHeight="1">
+      <c r="B138" s="22"/>
+      <c r="C138" s="17">
         <v>60</v>
       </c>
-      <c r="D138" s="18">
+      <c r="D138" s="17">
         <v>69</v>
       </c>
-      <c r="E138" s="29">
+      <c r="E138" s="28">
         <f t="shared" si="11"/>
         <v>0.87982832618025753</v>
       </c>
-      <c r="P138" s="24"/>
-    </row>
-    <row r="139" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="23"/>
-      <c r="C139" s="18">
+      <c r="P138" s="23"/>
+    </row>
+    <row r="139" spans="1:16" ht="20" customHeight="1">
+      <c r="B139" s="22"/>
+      <c r="C139" s="17">
         <v>70</v>
       </c>
-      <c r="D139" s="18">
+      <c r="D139" s="17">
         <v>79</v>
       </c>
-      <c r="E139" s="29">
+      <c r="E139" s="28">
         <f t="shared" si="11"/>
         <v>0.72588832487309651</v>
       </c>
-      <c r="P139" s="24"/>
-    </row>
-    <row r="140" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="23"/>
-      <c r="C140" s="18">
+      <c r="P139" s="23"/>
+    </row>
+    <row r="140" spans="1:16" ht="20" customHeight="1">
+      <c r="B140" s="22"/>
+      <c r="C140" s="17">
         <v>80</v>
       </c>
-      <c r="D140" s="18">
+      <c r="D140" s="17">
         <v>89</v>
       </c>
-      <c r="E140" s="29">
+      <c r="E140" s="28">
         <f t="shared" si="11"/>
         <v>0.51898734177215189</v>
       </c>
-      <c r="P140" s="24"/>
-    </row>
-    <row r="141" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="23"/>
-      <c r="C141" s="18">
+      <c r="P140" s="23"/>
+    </row>
+    <row r="141" spans="1:16" ht="20" customHeight="1">
+      <c r="B141" s="22"/>
+      <c r="C141" s="17">
         <v>90</v>
       </c>
-      <c r="D141" s="18">
+      <c r="D141" s="17">
         <v>100</v>
       </c>
-      <c r="E141" s="29">
+      <c r="E141" s="28">
         <f t="shared" ref="E141" si="12">M130</f>
         <v>0.5357142857142857</v>
       </c>
-      <c r="P141" s="24"/>
-    </row>
-    <row r="142" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="23"/>
-      <c r="E142" s="29"/>
-      <c r="P142" s="24"/>
-    </row>
-    <row r="143" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="18" t="s">
+      <c r="P141" s="23"/>
+    </row>
+    <row r="142" spans="1:16" ht="20" customHeight="1">
+      <c r="B142" s="22"/>
+      <c r="E142" s="28"/>
+      <c r="P142" s="23"/>
+    </row>
+    <row r="143" spans="1:16" ht="20" customHeight="1">
+      <c r="A143" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B143" s="23" t="s">
+      <c r="B143" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="C143" s="18" t="s">
+      <c r="C143" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H143" s="18" t="s">
+      <c r="H143" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="I143" s="18" t="s">
+      <c r="I143" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="P143" s="24"/>
-    </row>
-    <row r="144" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="37" t="s">
+      <c r="P143" s="23"/>
+    </row>
+    <row r="144" spans="1:16" ht="39" customHeight="1">
+      <c r="A144" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="B144" s="23"/>
-      <c r="C144" s="18" t="s">
+      <c r="B144" s="22"/>
+      <c r="C144" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D144" s="18" t="s">
+      <c r="D144" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E144" s="18" t="s">
+      <c r="E144" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="P144" s="24"/>
-    </row>
-    <row r="145" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="23"/>
-      <c r="C145" s="18">
-        <v>0</v>
-      </c>
-      <c r="D145" s="18">
+      <c r="P144" s="23"/>
+    </row>
+    <row r="145" spans="1:16" ht="20" customHeight="1">
+      <c r="B145" s="22"/>
+      <c r="C145" s="17">
+        <v>0</v>
+      </c>
+      <c r="D145" s="17">
         <v>9</v>
       </c>
-      <c r="E145" s="18" t="s">
+      <c r="E145" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="P145" s="24"/>
-    </row>
-    <row r="146" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="23"/>
-      <c r="C146" s="18">
+      <c r="P145" s="23"/>
+    </row>
+    <row r="146" spans="1:16" ht="20" customHeight="1">
+      <c r="B146" s="22"/>
+      <c r="C146" s="17">
         <v>10</v>
       </c>
-      <c r="D146" s="18">
+      <c r="D146" s="17">
         <v>19</v>
       </c>
-      <c r="E146" s="18" t="s">
+      <c r="E146" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="P146" s="24"/>
-    </row>
-    <row r="147" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="23"/>
-      <c r="C147" s="18">
+      <c r="P146" s="23"/>
+    </row>
+    <row r="147" spans="1:16" ht="20" customHeight="1">
+      <c r="B147" s="22"/>
+      <c r="C147" s="17">
         <v>20</v>
       </c>
-      <c r="D147" s="18">
+      <c r="D147" s="17">
         <v>29</v>
       </c>
-      <c r="E147" s="18">
+      <c r="E147" s="17">
         <v>4</v>
       </c>
-      <c r="P147" s="24"/>
-    </row>
-    <row r="148" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="23"/>
-      <c r="C148" s="18">
+      <c r="P147" s="23"/>
+    </row>
+    <row r="148" spans="1:16" ht="20" customHeight="1">
+      <c r="B148" s="22"/>
+      <c r="C148" s="17">
         <v>30</v>
       </c>
-      <c r="D148" s="18">
+      <c r="D148" s="17">
         <v>39</v>
       </c>
-      <c r="E148" s="18">
+      <c r="E148" s="17">
         <v>2.8</v>
       </c>
-      <c r="P148" s="24"/>
-    </row>
-    <row r="149" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="23"/>
-      <c r="C149" s="18">
+      <c r="P148" s="23"/>
+    </row>
+    <row r="149" spans="1:16" ht="20" customHeight="1">
+      <c r="B149" s="22"/>
+      <c r="C149" s="17">
         <v>40</v>
       </c>
-      <c r="D149" s="18">
+      <c r="D149" s="17">
         <v>49</v>
       </c>
-      <c r="E149" s="18">
+      <c r="E149" s="17">
         <v>5.6</v>
       </c>
-      <c r="P149" s="24"/>
-    </row>
-    <row r="150" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="23"/>
-      <c r="C150" s="18">
+      <c r="P149" s="23"/>
+    </row>
+    <row r="150" spans="1:16" ht="20" customHeight="1">
+      <c r="B150" s="22"/>
+      <c r="C150" s="17">
         <v>50</v>
       </c>
-      <c r="D150" s="18">
+      <c r="D150" s="17">
         <v>59</v>
       </c>
-      <c r="E150" s="18">
+      <c r="E150" s="17">
         <v>5.9</v>
       </c>
-      <c r="P150" s="24"/>
-    </row>
-    <row r="151" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="23"/>
-      <c r="C151" s="18">
+      <c r="P150" s="23"/>
+    </row>
+    <row r="151" spans="1:16" ht="20" customHeight="1">
+      <c r="B151" s="22"/>
+      <c r="C151" s="17">
         <v>60</v>
       </c>
-      <c r="D151" s="18">
+      <c r="D151" s="17">
         <v>69</v>
       </c>
-      <c r="E151" s="18">
+      <c r="E151" s="17">
         <v>5.7</v>
       </c>
-      <c r="P151" s="24"/>
-    </row>
-    <row r="152" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="23"/>
-      <c r="C152" s="18">
+      <c r="P151" s="23"/>
+    </row>
+    <row r="152" spans="1:16" ht="20" customHeight="1">
+      <c r="B152" s="22"/>
+      <c r="C152" s="17">
         <v>70</v>
       </c>
-      <c r="D152" s="18">
+      <c r="D152" s="17">
         <v>79</v>
       </c>
-      <c r="E152" s="18">
+      <c r="E152" s="17">
         <v>5</v>
       </c>
-      <c r="P152" s="24"/>
-    </row>
-    <row r="153" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="23"/>
-      <c r="C153" s="18">
+      <c r="P152" s="23"/>
+    </row>
+    <row r="153" spans="1:16" ht="20" customHeight="1">
+      <c r="B153" s="22"/>
+      <c r="C153" s="17">
         <v>80</v>
       </c>
-      <c r="D153" s="18">
+      <c r="D153" s="17">
         <v>89</v>
       </c>
-      <c r="E153" s="18">
+      <c r="E153" s="17">
         <v>3.9</v>
       </c>
-      <c r="P153" s="24"/>
-    </row>
-    <row r="154" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="23"/>
-      <c r="C154" s="18">
+      <c r="P153" s="23"/>
+    </row>
+    <row r="154" spans="1:16" ht="20" customHeight="1">
+      <c r="B154" s="22"/>
+      <c r="C154" s="17">
         <v>90</v>
       </c>
-      <c r="D154" s="18">
+      <c r="D154" s="17">
         <v>100</v>
       </c>
-      <c r="E154" s="18">
+      <c r="E154" s="17">
         <v>3</v>
       </c>
-      <c r="P154" s="24"/>
-    </row>
-    <row r="155" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="23"/>
-      <c r="C155" s="18" t="s">
+      <c r="P154" s="23"/>
+    </row>
+    <row r="155" spans="1:16" ht="20" customHeight="1">
+      <c r="B155" s="22"/>
+      <c r="C155" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E155" s="18">
+      <c r="E155" s="17">
         <v>4.8</v>
       </c>
-      <c r="F155" s="18">
+      <c r="F155" s="17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G155" s="18">
+      <c r="G155" s="17">
         <v>7.4</v>
       </c>
-      <c r="P155" s="24"/>
-    </row>
-    <row r="156" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="23"/>
-      <c r="P156" s="24"/>
-    </row>
-    <row r="157" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="18" t="s">
+      <c r="P155" s="23"/>
+    </row>
+    <row r="156" spans="1:16" ht="20" customHeight="1">
+      <c r="B156" s="22"/>
+      <c r="P156" s="23"/>
+    </row>
+    <row r="157" spans="1:16" ht="20" customHeight="1">
+      <c r="A157" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="B157" s="23" t="s">
+      <c r="B157" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="C157" s="18" t="s">
+      <c r="C157" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E157" s="18" t="s">
+      <c r="E157" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="H157" s="18" t="s">
+      <c r="H157" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="I157" s="18" t="s">
+      <c r="I157" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="P157" s="24"/>
-    </row>
-    <row r="158" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="37" t="s">
+      <c r="P157" s="23"/>
+    </row>
+    <row r="158" spans="1:16" ht="41" customHeight="1">
+      <c r="A158" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="B158" s="23"/>
-      <c r="P158" s="24"/>
-    </row>
-    <row r="159" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="23"/>
-      <c r="P159" s="24"/>
-    </row>
-    <row r="160" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="25" t="s">
+      <c r="B158" s="22"/>
+      <c r="P158" s="23"/>
+    </row>
+    <row r="159" spans="1:16" ht="20" customHeight="1">
+      <c r="B159" s="22"/>
+      <c r="P159" s="23"/>
+    </row>
+    <row r="160" spans="1:16" ht="20" customHeight="1">
+      <c r="B160" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="P160" s="24"/>
-    </row>
-    <row r="161" spans="1:16" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="18" t="s">
+      <c r="P160" s="23"/>
+    </row>
+    <row r="161" spans="1:16" ht="51" customHeight="1" thickBot="1">
+      <c r="A161" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B161" s="45" t="s">
+      <c r="B161" s="44" t="s">
         <v>297</v>
       </c>
-      <c r="C161" s="56" t="s">
+      <c r="C161" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="D161" s="64" t="s">
+      <c r="D161" s="94" t="s">
         <v>270</v>
       </c>
-      <c r="E161" s="64"/>
-      <c r="F161" s="64"/>
-      <c r="G161" s="64"/>
-      <c r="H161" s="64"/>
-      <c r="I161" s="31" t="s">
+      <c r="E161" s="94"/>
+      <c r="F161" s="94"/>
+      <c r="G161" s="94"/>
+      <c r="H161" s="94"/>
+      <c r="I161" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="J161" s="31"/>
-      <c r="K161" s="31"/>
-      <c r="L161" s="31"/>
-      <c r="M161" s="31"/>
-      <c r="N161" s="31"/>
-      <c r="O161" s="31"/>
-      <c r="P161" s="46"/>
+      <c r="J161" s="30"/>
+      <c r="K161" s="30"/>
+      <c r="L161" s="30"/>
+      <c r="M161" s="30"/>
+      <c r="N161" s="30"/>
+      <c r="O161" s="30"/>
+      <c r="P161" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5027,7 +6700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468E7823-795D-8146-A750-9E6B10545672}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -5035,9 +6708,9 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -5069,7 +6742,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -5101,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="7">
         <v>0</v>
       </c>
@@ -5133,7 +6806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="7">
         <v>0</v>
       </c>
@@ -5165,7 +6838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="7">
         <v>0</v>
       </c>
@@ -5197,7 +6870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -5229,7 +6902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="7">
         <v>0</v>
       </c>
@@ -5261,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="7">
         <v>0</v>
       </c>
@@ -5293,7 +6966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="7">
         <v>0</v>
       </c>
@@ -5325,7 +6998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="7">
         <v>0</v>
       </c>
@@ -5357,7 +7030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="7">
         <v>0</v>
       </c>
@@ -5387,152 +7060,6 @@
       </c>
       <c r="J11" s="3">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC06EAA-DD57-CD41-99C7-E054165F9535}">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView zoomScale="178" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="49">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="50">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="50">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="18">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="50">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" s="50">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
-        <v>273</v>
-      </c>
-      <c r="B16" s="18">
-        <v>11.2</v>
       </c>
     </row>
   </sheetData>
@@ -5541,118 +7068,152 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14D877F-90D7-AC42-AE98-4669C451F9AC}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC06EAA-DD57-CD41-99C7-E054165F9535}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="1" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>19</v>
-      </c>
-      <c r="C2">
-        <v>4.1300813008130079E-2</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>44</v>
-      </c>
-      <c r="C3">
-        <v>0.14411347517730497</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>45</v>
-      </c>
-      <c r="B4">
-        <v>54</v>
-      </c>
-      <c r="C4">
-        <v>0.21314685314685314</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>55</v>
-      </c>
-      <c r="B5">
-        <v>64</v>
-      </c>
-      <c r="C5">
-        <v>0.20130536130536131</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>65</v>
-      </c>
-      <c r="B6">
-        <v>74</v>
-      </c>
-      <c r="C6">
-        <v>0.22356968215158923</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>75</v>
-      </c>
-      <c r="B7">
-        <v>84</v>
-      </c>
-      <c r="C7">
-        <v>0.43542857142857144</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>85</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-      <c r="C8">
-        <v>0.3175</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="48">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="49">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="49">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="17">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="49">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="49">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" s="17">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="B17" s="17">
+        <v>2.4899999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5661,21 +7222,141 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14D877F-90D7-AC42-AE98-4669C451F9AC}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>4.1300813008130079E-2</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>0.14411347517730497</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>54</v>
+      </c>
+      <c r="C4">
+        <v>0.21314685314685314</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>0.20130536130536131</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <v>74</v>
+      </c>
+      <c r="C6">
+        <v>0.22356968215158923</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>75</v>
+      </c>
+      <c r="B7">
+        <v>84</v>
+      </c>
+      <c r="C7">
+        <v>0.43542857142857144</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>85</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>0.3175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE539784-BE45-0345-97F0-C9ABCF921BE4}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+      <selection activeCell="C2" sqref="C2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>172</v>
       </c>
@@ -5695,7 +7376,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5715,7 +7396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>10</v>
       </c>
@@ -5735,7 +7416,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>20</v>
       </c>
@@ -5755,7 +7436,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>30</v>
       </c>
@@ -5775,7 +7456,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>40</v>
       </c>
@@ -5795,7 +7476,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>50</v>
       </c>
@@ -5815,7 +7496,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>60</v>
       </c>
@@ -5835,7 +7516,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>70</v>
       </c>
@@ -5855,7 +7536,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>80</v>
       </c>
@@ -5875,7 +7556,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>90</v>
       </c>
@@ -5893,604 +7574,6 @@
       </c>
       <c r="F11">
         <v>4.8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B426F3C-8CA7-F349-A44D-CAA6F9BEBB9E}">
-  <dimension ref="A1:C53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="15">
-        <v>43926</v>
-      </c>
-      <c r="C2" s="15">
-        <v>43952</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="15">
-        <v>43919</v>
-      </c>
-      <c r="C3" s="15">
-        <v>43942</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="15">
-        <v>43922</v>
-      </c>
-      <c r="C4" s="15">
-        <v>43967</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B6" s="15">
-        <v>43909</v>
-      </c>
-      <c r="C6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B7" s="15">
-        <v>43916</v>
-      </c>
-      <c r="C7" s="15">
-        <v>43947</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" s="15">
-        <v>43914</v>
-      </c>
-      <c r="C8" s="15">
-        <v>43971</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B9" s="15">
-        <v>43914</v>
-      </c>
-      <c r="C9" s="15">
-        <v>43966</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B10" s="15">
-        <v>43922</v>
-      </c>
-      <c r="C10" s="15">
-        <v>43966</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>190</v>
-      </c>
-      <c r="B11" s="15">
-        <v>43924</v>
-      </c>
-      <c r="C11" s="15">
-        <v>43951</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B12" s="15">
-        <v>43925</v>
-      </c>
-      <c r="C12" s="15">
-        <v>43952</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>192</v>
-      </c>
-      <c r="B13" s="15">
-        <v>43915</v>
-      </c>
-      <c r="C13" s="15">
-        <v>43983</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>193</v>
-      </c>
-      <c r="B14" s="15">
-        <v>43915</v>
-      </c>
-      <c r="C14" s="15">
-        <v>43951</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="15">
-        <v>43912</v>
-      </c>
-      <c r="C15" s="15">
-        <v>43981</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="15">
-        <v>43915</v>
-      </c>
-      <c r="C16" s="15">
-        <v>43953</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>196</v>
-      </c>
-      <c r="B17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>197</v>
-      </c>
-      <c r="B18" s="15">
-        <v>43920</v>
-      </c>
-      <c r="C18" s="15">
-        <v>43954</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" s="15">
-        <v>43917</v>
-      </c>
-      <c r="C19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>199</v>
-      </c>
-      <c r="B20" s="15">
-        <v>43914</v>
-      </c>
-      <c r="C20" s="15">
-        <v>43966</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>200</v>
-      </c>
-      <c r="B21" s="15">
-        <v>43923</v>
-      </c>
-      <c r="C21" s="15">
-        <v>43982</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>201</v>
-      </c>
-      <c r="B22" s="15">
-        <v>43921</v>
-      </c>
-      <c r="C22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>202</v>
-      </c>
-      <c r="B23" s="15">
-        <v>43914</v>
-      </c>
-      <c r="C23" s="15">
-        <v>43969</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>203</v>
-      </c>
-      <c r="B24" s="15">
-        <v>43914</v>
-      </c>
-      <c r="C24" s="15">
-        <v>43967</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>204</v>
-      </c>
-      <c r="B25" s="15">
-        <v>43918</v>
-      </c>
-      <c r="C25" s="15">
-        <v>43954</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>205</v>
-      </c>
-      <c r="B26" s="15">
-        <v>43925</v>
-      </c>
-      <c r="C26" s="15">
-        <v>43948</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>206</v>
-      </c>
-      <c r="B27" s="15">
-        <v>43927</v>
-      </c>
-      <c r="C27" s="15">
-        <v>43954</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>207</v>
-      </c>
-      <c r="B28" s="15">
-        <v>43918</v>
-      </c>
-      <c r="C28" s="15">
-        <v>43947</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>208</v>
-      </c>
-      <c r="B29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>209</v>
-      </c>
-      <c r="B30" s="15">
-        <v>43922</v>
-      </c>
-      <c r="C30" s="15">
-        <v>43966</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>210</v>
-      </c>
-      <c r="B31" s="15">
-        <v>43918</v>
-      </c>
-      <c r="C31" s="15">
-        <v>43955</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>211</v>
-      </c>
-      <c r="B32" s="15">
-        <v>43912</v>
-      </c>
-      <c r="C32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>212</v>
-      </c>
-      <c r="B33" s="15">
-        <v>43913</v>
-      </c>
-      <c r="C33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>213</v>
-      </c>
-      <c r="B34" s="15">
-        <v>43912</v>
-      </c>
-      <c r="C34" s="15">
-        <v>43966</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>214</v>
-      </c>
-      <c r="B35" s="15">
-        <v>43921</v>
-      </c>
-      <c r="C35" s="15">
-        <v>43960</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>215</v>
-      </c>
-      <c r="B36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>216</v>
-      </c>
-      <c r="B37" s="15">
-        <v>43914</v>
-      </c>
-      <c r="C37" s="15">
-        <v>43953</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>217</v>
-      </c>
-      <c r="B38" s="15">
-        <v>43914</v>
-      </c>
-      <c r="C38" s="15">
-        <v>43957</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>218</v>
-      </c>
-      <c r="B39" s="15">
-        <v>43913</v>
-      </c>
-      <c r="C39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>219</v>
-      </c>
-      <c r="B40" s="15">
-        <v>43905</v>
-      </c>
-      <c r="C40" s="15">
-        <v>43954</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>220</v>
-      </c>
-      <c r="B41" s="15">
-        <v>43923</v>
-      </c>
-      <c r="C41" s="15">
-        <v>43959</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>221</v>
-      </c>
-      <c r="B42" s="15">
-        <v>43918</v>
-      </c>
-      <c r="C42" s="15">
-        <v>43959</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>222</v>
-      </c>
-      <c r="B43" s="15">
-        <v>43929</v>
-      </c>
-      <c r="C43" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>223</v>
-      </c>
-      <c r="B44" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>224</v>
-      </c>
-      <c r="B45" s="15">
-        <v>43922</v>
-      </c>
-      <c r="C45" s="15">
-        <v>43952</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>225</v>
-      </c>
-      <c r="B46" s="15">
-        <v>43923</v>
-      </c>
-      <c r="C46" s="15">
-        <v>43951</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>226</v>
-      </c>
-      <c r="B47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>227</v>
-      </c>
-      <c r="B48" s="15">
-        <v>43916</v>
-      </c>
-      <c r="C48" s="15">
-        <v>43966</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>228</v>
-      </c>
-      <c r="B49" s="15">
-        <v>43920</v>
-      </c>
-      <c r="C49" s="15">
-        <v>43992</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>229</v>
-      </c>
-      <c r="B50" s="15">
-        <v>43913</v>
-      </c>
-      <c r="C50" s="15">
-        <v>43955</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>230</v>
-      </c>
-      <c r="B51" s="15">
-        <v>43915</v>
-      </c>
-      <c r="C51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>231</v>
-      </c>
-      <c r="B52" s="15">
-        <v>43915</v>
-      </c>
-      <c r="C52" s="15">
-        <v>43977</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>232</v>
-      </c>
-      <c r="B53" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -6499,19 +7582,631 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C531592-1077-9942-9A90-D21B632320FA}">
-  <dimension ref="A1:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B426F3C-8CA7-F349-A44D-CAA6F9BEBB9E}">
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="15">
+        <v>43926</v>
+      </c>
+      <c r="C2" s="15">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="15">
+        <v>43919</v>
+      </c>
+      <c r="C3" s="15">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="15">
+        <v>43922</v>
+      </c>
+      <c r="C4" s="15">
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="15">
+        <v>43909</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="15">
+        <v>43916</v>
+      </c>
+      <c r="C7" s="15">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="15">
+        <v>43914</v>
+      </c>
+      <c r="C8" s="15">
+        <v>43971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="15">
+        <v>43914</v>
+      </c>
+      <c r="C9" s="15">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="15">
+        <v>43922</v>
+      </c>
+      <c r="C10" s="15">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="15">
+        <v>43924</v>
+      </c>
+      <c r="C11" s="15">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="15">
+        <v>43925</v>
+      </c>
+      <c r="C12" s="15">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="15">
+        <v>43915</v>
+      </c>
+      <c r="C13" s="15">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="15">
+        <v>43915</v>
+      </c>
+      <c r="C14" s="15">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="15">
+        <v>43912</v>
+      </c>
+      <c r="C15" s="15">
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="15">
+        <v>43915</v>
+      </c>
+      <c r="C16" s="15">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="15">
+        <v>43920</v>
+      </c>
+      <c r="C18" s="15">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="15">
+        <v>43917</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="15">
+        <v>43914</v>
+      </c>
+      <c r="C20" s="15">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="15">
+        <v>43923</v>
+      </c>
+      <c r="C21" s="15">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="15">
+        <v>43921</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="15">
+        <v>43914</v>
+      </c>
+      <c r="C23" s="15">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="15">
+        <v>43914</v>
+      </c>
+      <c r="C24" s="15">
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" s="15">
+        <v>43918</v>
+      </c>
+      <c r="C25" s="15">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="15">
+        <v>43925</v>
+      </c>
+      <c r="C26" s="15">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" s="15">
+        <v>43927</v>
+      </c>
+      <c r="C27" s="15">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" s="15">
+        <v>43918</v>
+      </c>
+      <c r="C28" s="15">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" s="15">
+        <v>43922</v>
+      </c>
+      <c r="C30" s="15">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>210</v>
+      </c>
+      <c r="B31" s="15">
+        <v>43918</v>
+      </c>
+      <c r="C31" s="15">
+        <v>43955</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B32" s="15">
+        <v>43912</v>
+      </c>
+      <c r="C32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" s="15">
+        <v>43913</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>213</v>
+      </c>
+      <c r="B34" s="15">
+        <v>43912</v>
+      </c>
+      <c r="C34" s="15">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35" s="15">
+        <v>43921</v>
+      </c>
+      <c r="C35" s="15">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>215</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37" s="15">
+        <v>43914</v>
+      </c>
+      <c r="C37" s="15">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="15">
+        <v>43914</v>
+      </c>
+      <c r="C38" s="15">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>218</v>
+      </c>
+      <c r="B39" s="15">
+        <v>43913</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" s="15">
+        <v>43905</v>
+      </c>
+      <c r="C40" s="15">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>220</v>
+      </c>
+      <c r="B41" s="15">
+        <v>43923</v>
+      </c>
+      <c r="C41" s="15">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>221</v>
+      </c>
+      <c r="B42" s="15">
+        <v>43918</v>
+      </c>
+      <c r="C42" s="15">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="15">
+        <v>43929</v>
+      </c>
+      <c r="C43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>223</v>
+      </c>
+      <c r="B44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>224</v>
+      </c>
+      <c r="B45" s="15">
+        <v>43922</v>
+      </c>
+      <c r="C45" s="15">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>225</v>
+      </c>
+      <c r="B46" s="15">
+        <v>43923</v>
+      </c>
+      <c r="C46" s="15">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>227</v>
+      </c>
+      <c r="B48" s="15">
+        <v>43916</v>
+      </c>
+      <c r="C48" s="15">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>228</v>
+      </c>
+      <c r="B49" s="15">
+        <v>43920</v>
+      </c>
+      <c r="C49" s="15">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>229</v>
+      </c>
+      <c r="B50" s="15">
+        <v>43913</v>
+      </c>
+      <c r="C50" s="15">
+        <v>43955</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>230</v>
+      </c>
+      <c r="B51" s="15">
+        <v>43915</v>
+      </c>
+      <c r="C51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>231</v>
+      </c>
+      <c r="B52" s="15">
+        <v>43915</v>
+      </c>
+      <c r="C52" s="15">
+        <v>43977</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>232</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>304</v>
+      </c>
+      <c r="B54" s="15">
+        <v>43990</v>
+      </c>
+      <c r="C54" s="15">
+        <v>43969</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C531592-1077-9942-9A90-D21B632320FA}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="16">
       <c r="A1" s="13" t="s">
         <v>122</v>
       </c>
@@ -6519,7 +8214,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="16">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
@@ -6527,7 +8222,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="16">
       <c r="A3" s="13" t="s">
         <v>36</v>
       </c>
@@ -6535,7 +8230,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="16">
       <c r="A4" s="13" t="s">
         <v>37</v>
       </c>
@@ -6543,7 +8238,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="16">
       <c r="A5" s="13" t="s">
         <v>38</v>
       </c>
@@ -6551,31 +8246,31 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="16">
       <c r="A6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="62" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="16">
       <c r="A7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="62" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="16">
       <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="62" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="16">
       <c r="A9" s="13" t="s">
         <v>111</v>
       </c>
@@ -6583,7 +8278,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="16">
       <c r="A10" s="13" t="s">
         <v>144</v>
       </c>
@@ -6591,7 +8286,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="16">
       <c r="A11" s="13" t="s">
         <v>147</v>
       </c>
@@ -6599,7 +8294,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="16">
       <c r="A12" s="13" t="s">
         <v>149</v>
       </c>
@@ -6607,7 +8302,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="16">
       <c r="A13" s="13" t="s">
         <v>150</v>
       </c>
@@ -6615,7 +8310,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="16">
       <c r="A14" s="13" t="s">
         <v>152</v>
       </c>
@@ -6623,7 +8318,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="16">
       <c r="A15" s="13" t="s">
         <v>154</v>
       </c>
@@ -6631,7 +8326,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="16">
       <c r="A16" s="13" t="s">
         <v>160</v>
       </c>
@@ -6639,7 +8334,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="16">
       <c r="A17" s="13" t="s">
         <v>162</v>
       </c>
@@ -6647,7 +8342,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="16">
       <c r="A18" s="13" t="s">
         <v>163</v>
       </c>
@@ -6655,7 +8350,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="16">
       <c r="A19" s="13" t="s">
         <v>165</v>
       </c>
@@ -6663,7 +8358,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="16">
       <c r="A20" s="13" t="s">
         <v>167</v>
       </c>
@@ -6671,28 +8366,84 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="16">
       <c r="A21" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="56" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="16">
       <c r="A22" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="59" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="16">
       <c r="A23" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="61" t="s">
         <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16">
+      <c r="A24" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16">
+      <c r="A25" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16">
+      <c r="A26" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="76" t="s">
+        <v>327</v>
+      </c>
+      <c r="B27" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16">
+      <c r="A28" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16">
+      <c r="A29" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16">
+      <c r="A30" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/app/COVID19master/data/COVID_input_parameters.xlsx
+++ b/app/COVID19master/data/COVID_input_parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanor/Documents/GitHub/COVID19-Univ./web/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanor/Documents/GitHub/COVID19-Univ./app/COVID19master/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3311A7D9-048E-B04C-AE8A-04D8D2AEBE47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8D8B8C-DCA6-E94D-8A92-D98CB0C61BFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="680" windowWidth="27840" windowHeight="16060" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="500" windowWidth="27840" windowHeight="16060" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="12" r:id="rId1"/>
@@ -1428,7 +1428,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1569,6 +1569,12 @@
       <color rgb="FF212529"/>
       <name val="Times Roman"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1695,7 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1937,6 +1943,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7071,7 +7078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC06EAA-DD57-CD41-99C7-E054165F9535}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
+    <sheetView zoomScale="178" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -7223,10 +7230,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14D877F-90D7-AC42-AE98-4669C451F9AC}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -7247,93 +7254,115 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>19</v>
+      <c r="A2" s="95">
+        <v>0</v>
+      </c>
+      <c r="B2" s="95">
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>4.1300813008130079E-2</v>
+        <v>4.0999999999999995E-2</v>
       </c>
       <c r="D2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>44</v>
+      <c r="A3" s="95">
+        <v>10</v>
+      </c>
+      <c r="B3" s="95">
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>0.14411347517730497</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D3" s="14"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4">
-        <v>45</v>
-      </c>
-      <c r="B4">
-        <v>54</v>
+      <c r="A4" s="95">
+        <v>20</v>
+      </c>
+      <c r="B4" s="95">
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>0.21314685314685314</v>
+        <v>0.08</v>
       </c>
       <c r="D4" s="14"/>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5">
-        <v>55</v>
-      </c>
-      <c r="B5">
-        <v>64</v>
+      <c r="A5" s="95">
+        <v>30</v>
+      </c>
+      <c r="B5" s="95">
+        <v>44</v>
       </c>
       <c r="C5">
-        <v>0.20130536130536131</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D5" s="14"/>
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6">
-        <v>65</v>
-      </c>
-      <c r="B6">
-        <v>74</v>
+      <c r="A6" s="95">
+        <v>45</v>
+      </c>
+      <c r="B6" s="95">
+        <v>54</v>
       </c>
       <c r="C6">
-        <v>0.22356968215158923</v>
+        <v>0.24</v>
       </c>
       <c r="D6" s="14"/>
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7">
-        <v>75</v>
-      </c>
-      <c r="B7">
-        <v>84</v>
+      <c r="A7" s="95">
+        <v>55</v>
+      </c>
+      <c r="B7" s="95">
+        <v>64</v>
       </c>
       <c r="C7">
-        <v>0.43542857142857144</v>
+        <v>0.25</v>
       </c>
       <c r="D7" s="14"/>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8">
+      <c r="A8" s="95">
+        <v>65</v>
+      </c>
+      <c r="B8" s="95">
+        <v>74</v>
+      </c>
+      <c r="C8">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="95">
+        <v>75</v>
+      </c>
+      <c r="B9" s="95">
+        <v>84</v>
+      </c>
+      <c r="C9">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="95">
         <v>85</v>
       </c>
-      <c r="B8">
+      <c r="B10" s="95">
         <v>100</v>
       </c>
-      <c r="C8">
-        <v>0.3175</v>
+      <c r="C10">
+        <v>0.318</v>
       </c>
     </row>
   </sheetData>
@@ -7345,8 +7374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE539784-BE45-0345-97F0-C9ABCF921BE4}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -7384,10 +7413,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.5499999999999972</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.5499999999999972</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -7404,10 +7433,10 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2.6800000000000068</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2.6800000000000068</v>
       </c>
       <c r="E3">
         <v>1.8</v>
@@ -7424,10 +7453,10 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>1.8</v>
+        <v>4.0400000000000063</v>
       </c>
       <c r="D4">
-        <v>7.1</v>
+        <v>4.0400000000000063</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -7444,10 +7473,10 @@
         <v>39</v>
       </c>
       <c r="C5">
-        <v>2.5</v>
+        <v>6.7199999999999989</v>
       </c>
       <c r="D5">
-        <v>4.5999999999999996</v>
+        <v>6.7199999999999989</v>
       </c>
       <c r="E5">
         <v>2.8</v>
@@ -7464,10 +7493,10 @@
         <v>49</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>10.799999999999997</v>
       </c>
       <c r="D6">
-        <v>8.1999999999999993</v>
+        <v>10.799999999999997</v>
       </c>
       <c r="E6">
         <v>5.6</v>
@@ -7484,10 +7513,10 @@
         <v>59</v>
       </c>
       <c r="C7">
-        <v>6.9</v>
+        <v>17.849999999999994</v>
       </c>
       <c r="D7">
-        <v>12.2</v>
+        <v>17.849999999999994</v>
       </c>
       <c r="E7">
         <v>5.9</v>
@@ -7504,10 +7533,10 @@
         <v>69</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>30.340000000000003</v>
       </c>
       <c r="D8">
-        <v>18.7</v>
+        <v>30.340000000000003</v>
       </c>
       <c r="E8">
         <v>5.7</v>
@@ -7524,10 +7553,10 @@
         <v>79</v>
       </c>
       <c r="C9">
-        <v>27.4</v>
+        <v>48.79</v>
       </c>
       <c r="D9">
-        <v>35.799999999999997</v>
+        <v>48.79</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -7544,10 +7573,10 @@
         <v>89</v>
       </c>
       <c r="C10">
-        <v>48.1</v>
+        <v>88.210000000000008</v>
       </c>
       <c r="D10">
-        <v>60.6</v>
+        <v>88.210000000000008</v>
       </c>
       <c r="E10">
         <v>3.9</v>
@@ -7564,10 +7593,10 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <v>46.4</v>
+        <v>88.210000000000008</v>
       </c>
       <c r="D11">
-        <v>63.6</v>
+        <v>88.210000000000008</v>
       </c>
       <c r="E11">
         <v>3</v>
